--- a/Data/P&P python preprocessing/PP_preprocessed.xlsx
+++ b/Data/P&P python preprocessing/PP_preprocessed.xlsx
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1507,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>26</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>26</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -3014,10 +3014,10 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>31</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>31</v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>36</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -4052,10 +4052,10 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>38</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>39</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
         <v>40</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
         <v>40</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
         <v>40</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
         <v>40</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
         <v>40</v>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
         <v>40</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
         <v>40</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
         <v>40</v>
@@ -4503,10 +4503,10 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
         <v>40</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
         <v>40</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
         <v>40</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
         <v>40</v>
@@ -4640,10 +4640,10 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
         <v>40</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
@@ -4704,10 +4704,10 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
         <v>40</v>
@@ -4736,10 +4736,10 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s">
         <v>41</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
         <v>42</v>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
         <v>43</v>
@@ -4823,10 +4823,10 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
         <v>44</v>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
         <v>45</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>46</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
         <v>46</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
         <v>47</v>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
         <v>47</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
         <v>47</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
         <v>47</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
         <v>48</v>
@@ -5102,10 +5102,10 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
         <v>49</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
         <v>49</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
         <v>49</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
         <v>49</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
         <v>49</v>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
         <v>49</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s">
         <v>49</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>50</v>
@@ -5343,10 +5343,10 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>50</v>
@@ -5381,10 +5381,10 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
         <v>51</v>
@@ -5410,10 +5410,10 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
         <v>52</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
         <v>52</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
         <v>52</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
         <v>53</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
         <v>53</v>
@@ -5585,10 +5585,10 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C135" t="s">
         <v>53</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
         <v>53</v>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C137" t="s">
         <v>53</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C138" t="s">
         <v>53</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
         <v>53</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
         <v>53</v>
@@ -5813,10 +5813,10 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C141" t="s">
         <v>54</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
         <v>54</v>
@@ -5871,10 +5871,10 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
         <v>55</v>
@@ -5900,10 +5900,10 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
         <v>56</v>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -6063,10 +6063,10 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -6095,10 +6095,10 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
         <v>58</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
         <v>58</v>
@@ -6197,10 +6197,10 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s">
         <v>59</v>
@@ -6232,10 +6232,10 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C154" t="s">
         <v>60</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C155" t="s">
         <v>60</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
         <v>60</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
         <v>60</v>
@@ -6357,10 +6357,10 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C158" t="s">
         <v>60</v>
@@ -6389,10 +6389,10 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C159" t="s">
         <v>60</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C160" t="s">
         <v>61</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C161" t="s">
         <v>61</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C162" t="s">
         <v>61</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C163" t="s">
         <v>61</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C164" t="s">
         <v>61</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C165" t="s">
         <v>61</v>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C166" t="s">
         <v>61</v>
@@ -6624,10 +6624,10 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C167" t="s">
         <v>61</v>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C168" t="s">
         <v>61</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C169" t="s">
         <v>61</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
         <v>61</v>
@@ -6740,10 +6740,10 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
         <v>61</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C172" t="s">
         <v>61</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C173" t="s">
         <v>61</v>
@@ -6827,10 +6827,10 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C174" t="s">
         <v>61</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C175" t="s">
         <v>61</v>
@@ -6885,10 +6885,10 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C176" t="s">
         <v>61</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C177" t="s">
         <v>61</v>
@@ -6943,10 +6943,10 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C178" t="s">
         <v>61</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="179" spans="1:16">
       <c r="A179">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C179" t="s">
         <v>61</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="180" spans="1:16">
       <c r="A180">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C180" t="s">
         <v>61</v>
@@ -7030,10 +7030,10 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C181" t="s">
         <v>61</v>
@@ -7059,10 +7059,10 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C182" t="s">
         <v>61</v>
@@ -7088,10 +7088,10 @@
     </row>
     <row r="183" spans="1:16">
       <c r="A183">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C183" t="s">
         <v>61</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="184" spans="1:16">
       <c r="A184">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C184" t="s">
         <v>61</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="185" spans="1:16">
       <c r="A185">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C185" t="s">
         <v>61</v>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="186" spans="1:16">
       <c r="A186">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C186" t="s">
         <v>61</v>
@@ -7210,10 +7210,10 @@
     </row>
     <row r="187" spans="1:16">
       <c r="A187">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C187" t="s">
         <v>61</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="188" spans="1:16">
       <c r="A188">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C188" t="s">
         <v>61</v>
@@ -7268,10 +7268,10 @@
     </row>
     <row r="189" spans="1:16">
       <c r="A189">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
         <v>61</v>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C190" t="s">
         <v>61</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C191" t="s">
         <v>61</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="192" spans="1:16">
       <c r="A192">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C192" t="s">
         <v>61</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="193" spans="1:16">
       <c r="A193">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C193" t="s">
         <v>61</v>
@@ -7413,10 +7413,10 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C194" t="s">
         <v>61</v>
@@ -7442,10 +7442,10 @@
     </row>
     <row r="195" spans="1:16">
       <c r="A195">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C195" t="s">
         <v>61</v>
@@ -7471,10 +7471,10 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C196" t="s">
         <v>61</v>
@@ -7500,10 +7500,10 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C197" t="s">
         <v>61</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="198" spans="1:16">
       <c r="A198">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C198" t="s">
         <v>61</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="199" spans="1:16">
       <c r="A199">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C199" t="s">
         <v>61</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="200" spans="1:16">
       <c r="A200">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C200" t="s">
         <v>61</v>
@@ -7616,10 +7616,10 @@
     </row>
     <row r="201" spans="1:16">
       <c r="A201">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C201" t="s">
         <v>61</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="202" spans="1:16">
       <c r="A202">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C202" t="s">
         <v>61</v>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="203" spans="1:16">
       <c r="A203">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C203" t="s">
         <v>61</v>
@@ -7703,10 +7703,10 @@
     </row>
     <row r="204" spans="1:16">
       <c r="A204">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C204" t="s">
         <v>61</v>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="205" spans="1:16">
       <c r="A205">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C205" t="s">
         <v>61</v>
@@ -7773,10 +7773,10 @@
     </row>
     <row r="206" spans="1:16">
       <c r="A206">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C206" t="s">
         <v>61</v>
@@ -7808,10 +7808,10 @@
     </row>
     <row r="207" spans="1:16">
       <c r="A207">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C207" t="s">
         <v>61</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="208" spans="1:16">
       <c r="A208">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C208" t="s">
         <v>61</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="209" spans="1:16">
       <c r="A209">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C209" t="s">
         <v>61</v>
@@ -7901,10 +7901,10 @@
     </row>
     <row r="210" spans="1:16">
       <c r="A210">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C210" t="s">
         <v>61</v>
@@ -7930,10 +7930,10 @@
     </row>
     <row r="211" spans="1:16">
       <c r="A211">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C211" t="s">
         <v>61</v>
@@ -7959,10 +7959,10 @@
     </row>
     <row r="212" spans="1:16">
       <c r="A212">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C212" t="s">
         <v>61</v>
@@ -7988,10 +7988,10 @@
     </row>
     <row r="213" spans="1:16">
       <c r="A213">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
         <v>61</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="214" spans="1:16">
       <c r="A214">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
         <v>61</v>
@@ -8046,10 +8046,10 @@
     </row>
     <row r="215" spans="1:16">
       <c r="A215">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C215" t="s">
         <v>61</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="216" spans="1:16">
       <c r="A216">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C216" t="s">
         <v>61</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="217" spans="1:16">
       <c r="A217">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C217" t="s">
         <v>61</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="218" spans="1:16">
       <c r="A218">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C218" t="s">
         <v>61</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="219" spans="1:16">
       <c r="A219">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C219" t="s">
         <v>61</v>
@@ -8191,10 +8191,10 @@
     </row>
     <row r="220" spans="1:16">
       <c r="A220">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C220" t="s">
         <v>61</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="221" spans="1:16">
       <c r="A221">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C221" t="s">
         <v>61</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="222" spans="1:16">
       <c r="A222">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C222" t="s">
         <v>61</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="223" spans="1:16">
       <c r="A223">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C223" t="s">
         <v>61</v>
@@ -8307,10 +8307,10 @@
     </row>
     <row r="224" spans="1:16">
       <c r="A224">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C224" t="s">
         <v>61</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="225" spans="1:16">
       <c r="A225">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C225" t="s">
         <v>62</v>
@@ -8371,10 +8371,10 @@
     </row>
     <row r="226" spans="1:16">
       <c r="A226">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s">
         <v>63</v>
@@ -8406,10 +8406,10 @@
     </row>
     <row r="227" spans="1:16">
       <c r="A227">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C227" t="s">
         <v>63</v>
@@ -8441,10 +8441,10 @@
     </row>
     <row r="228" spans="1:16">
       <c r="A228">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C228" t="s">
         <v>63</v>
@@ -8476,10 +8476,10 @@
     </row>
     <row r="229" spans="1:16">
       <c r="A229">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C229" t="s">
         <v>64</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="230" spans="1:16">
       <c r="A230">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C230" t="s">
         <v>64</v>
@@ -8534,10 +8534,10 @@
     </row>
     <row r="231" spans="1:16">
       <c r="A231">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
         <v>64</v>
@@ -8563,10 +8563,10 @@
     </row>
     <row r="232" spans="1:16">
       <c r="A232">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C232" t="s">
         <v>65</v>
@@ -8598,10 +8598,10 @@
     </row>
     <row r="233" spans="1:16">
       <c r="A233">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C233" t="s">
         <v>66</v>
@@ -8627,10 +8627,10 @@
     </row>
     <row r="234" spans="1:16">
       <c r="A234">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
         <v>67</v>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="235" spans="1:16">
       <c r="A235">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -8700,10 +8700,10 @@
     </row>
     <row r="236" spans="1:16">
       <c r="A236">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -8744,10 +8744,10 @@
     </row>
     <row r="237" spans="1:16">
       <c r="A237">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C237" t="s">
         <v>68</v>
@@ -8788,10 +8788,10 @@
     </row>
     <row r="238" spans="1:16">
       <c r="A238">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C238" t="s">
         <v>69</v>
@@ -8817,10 +8817,10 @@
     </row>
     <row r="239" spans="1:16">
       <c r="A239">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C239" t="s">
         <v>69</v>
@@ -8846,10 +8846,10 @@
     </row>
     <row r="240" spans="1:16">
       <c r="A240">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C240" t="s">
         <v>69</v>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="241" spans="1:16">
       <c r="A241">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C241" t="s">
         <v>69</v>
@@ -8904,10 +8904,10 @@
     </row>
     <row r="242" spans="1:16">
       <c r="A242">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C242" t="s">
         <v>69</v>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="243" spans="1:16">
       <c r="A243">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C243" t="s">
         <v>69</v>
@@ -8962,10 +8962,10 @@
     </row>
     <row r="244" spans="1:16">
       <c r="A244">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C244" t="s">
         <v>69</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="245" spans="1:16">
       <c r="A245">
-        <v>322</v>
+        <v>244</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C245" t="s">
         <v>69</v>
@@ -9020,10 +9020,10 @@
     </row>
     <row r="246" spans="1:16">
       <c r="A246">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C246" t="s">
         <v>69</v>
@@ -9049,10 +9049,10 @@
     </row>
     <row r="247" spans="1:16">
       <c r="A247">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C247" t="s">
         <v>69</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="248" spans="1:16">
       <c r="A248">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C248" t="s">
         <v>69</v>
@@ -9107,10 +9107,10 @@
     </row>
     <row r="249" spans="1:16">
       <c r="A249">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C249" t="s">
         <v>69</v>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="250" spans="1:16">
       <c r="A250">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C250" t="s">
         <v>69</v>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="251" spans="1:16">
       <c r="A251">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C251" t="s">
         <v>69</v>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="252" spans="1:16">
       <c r="A252">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C252" t="s">
         <v>70</v>
@@ -9223,10 +9223,10 @@
     </row>
     <row r="253" spans="1:16">
       <c r="A253">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
         <v>70</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="254" spans="1:16">
       <c r="A254">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C254" t="s">
         <v>71</v>
@@ -9287,10 +9287,10 @@
     </row>
     <row r="255" spans="1:16">
       <c r="A255">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C255" t="s">
         <v>71</v>
@@ -9316,10 +9316,10 @@
     </row>
     <row r="256" spans="1:16">
       <c r="A256">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C256" t="s">
         <v>72</v>
@@ -9360,10 +9360,10 @@
     </row>
     <row r="257" spans="1:16">
       <c r="A257">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C257" t="s">
         <v>72</v>
@@ -9404,10 +9404,10 @@
     </row>
     <row r="258" spans="1:16">
       <c r="A258">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C258" t="s">
         <v>72</v>
@@ -9448,10 +9448,10 @@
     </row>
     <row r="259" spans="1:16">
       <c r="A259">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C259" t="s">
         <v>72</v>
@@ -9492,10 +9492,10 @@
     </row>
     <row r="260" spans="1:16">
       <c r="A260">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C260" t="s">
         <v>72</v>
@@ -9536,10 +9536,10 @@
     </row>
     <row r="261" spans="1:16">
       <c r="A261">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C261" t="s">
         <v>72</v>
@@ -9580,10 +9580,10 @@
     </row>
     <row r="262" spans="1:16">
       <c r="A262">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C262" t="s">
         <v>72</v>
@@ -9624,10 +9624,10 @@
     </row>
     <row r="263" spans="1:16">
       <c r="A263">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C263" t="s">
         <v>72</v>
@@ -9668,10 +9668,10 @@
     </row>
     <row r="264" spans="1:16">
       <c r="A264">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C264" t="s">
         <v>72</v>
@@ -9712,10 +9712,10 @@
     </row>
     <row r="265" spans="1:16">
       <c r="A265">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C265" t="s">
         <v>72</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="266" spans="1:16">
       <c r="A266">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C266" t="s">
         <v>72</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="267" spans="1:16">
       <c r="A267">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C267" t="s">
         <v>73</v>
@@ -9829,10 +9829,10 @@
     </row>
     <row r="268" spans="1:16">
       <c r="A268">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C268" t="s">
         <v>74</v>
@@ -9858,10 +9858,10 @@
     </row>
     <row r="269" spans="1:16">
       <c r="A269">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C269" t="s">
         <v>75</v>
@@ -9896,10 +9896,10 @@
     </row>
     <row r="270" spans="1:16">
       <c r="A270">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C270" t="s">
         <v>76</v>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="271" spans="1:16">
       <c r="A271">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C271" t="s">
         <v>76</v>
@@ -9954,10 +9954,10 @@
     </row>
     <row r="272" spans="1:16">
       <c r="A272">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C272" t="s">
         <v>76</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="273" spans="1:16">
       <c r="A273">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C273" t="s">
         <v>77</v>
@@ -10012,10 +10012,10 @@
     </row>
     <row r="274" spans="1:16">
       <c r="A274">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C274" t="s">
         <v>77</v>
@@ -10041,10 +10041,10 @@
     </row>
     <row r="275" spans="1:16">
       <c r="A275">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C275" t="s">
         <v>77</v>
@@ -10070,10 +10070,10 @@
     </row>
     <row r="276" spans="1:16">
       <c r="A276">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C276" t="s">
         <v>77</v>
@@ -10099,10 +10099,10 @@
     </row>
     <row r="277" spans="1:16">
       <c r="A277">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C277" t="s">
         <v>77</v>
@@ -10128,10 +10128,10 @@
     </row>
     <row r="278" spans="1:16">
       <c r="A278">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C278" t="s">
         <v>77</v>
@@ -10157,10 +10157,10 @@
     </row>
     <row r="279" spans="1:16">
       <c r="A279">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C279" t="s">
         <v>77</v>
@@ -10186,10 +10186,10 @@
     </row>
     <row r="280" spans="1:16">
       <c r="A280">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C280" t="s">
         <v>77</v>
@@ -10215,10 +10215,10 @@
     </row>
     <row r="281" spans="1:16">
       <c r="A281">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C281" t="s">
         <v>77</v>
@@ -10244,10 +10244,10 @@
     </row>
     <row r="282" spans="1:16">
       <c r="A282">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C282" t="s">
         <v>78</v>
@@ -10273,10 +10273,10 @@
     </row>
     <row r="283" spans="1:16">
       <c r="A283">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C283" t="s">
         <v>78</v>
@@ -10302,10 +10302,10 @@
     </row>
     <row r="284" spans="1:16">
       <c r="A284">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C284" t="s">
         <v>79</v>
@@ -10331,10 +10331,10 @@
     </row>
     <row r="285" spans="1:16">
       <c r="A285">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C285" t="s">
         <v>80</v>
@@ -10360,10 +10360,10 @@
     </row>
     <row r="286" spans="1:16">
       <c r="A286">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C286" t="s">
         <v>80</v>
@@ -10392,10 +10392,10 @@
     </row>
     <row r="287" spans="1:16">
       <c r="A287">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C287" t="s">
         <v>80</v>
@@ -10424,10 +10424,10 @@
     </row>
     <row r="288" spans="1:16">
       <c r="A288">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C288" t="s">
         <v>80</v>
@@ -10456,10 +10456,10 @@
     </row>
     <row r="289" spans="1:16">
       <c r="A289">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C289" t="s">
         <v>81</v>
@@ -10491,10 +10491,10 @@
     </row>
     <row r="290" spans="1:16">
       <c r="A290">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C290" t="s">
         <v>81</v>
@@ -10526,10 +10526,10 @@
     </row>
     <row r="291" spans="1:16">
       <c r="A291">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C291" t="s">
         <v>82</v>
@@ -10561,10 +10561,10 @@
     </row>
     <row r="292" spans="1:16">
       <c r="A292">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C292" t="s">
         <v>82</v>
@@ -10596,10 +10596,10 @@
     </row>
     <row r="293" spans="1:16">
       <c r="A293">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C293" t="s">
         <v>82</v>
@@ -10631,10 +10631,10 @@
     </row>
     <row r="294" spans="1:16">
       <c r="A294">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C294" t="s">
         <v>82</v>
@@ -10666,10 +10666,10 @@
     </row>
     <row r="295" spans="1:16">
       <c r="A295">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C295" t="s">
         <v>82</v>
@@ -10701,10 +10701,10 @@
     </row>
     <row r="296" spans="1:16">
       <c r="A296">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C296" t="s">
         <v>82</v>
@@ -10736,10 +10736,10 @@
     </row>
     <row r="297" spans="1:16">
       <c r="A297">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C297" t="s">
         <v>83</v>
@@ -10765,10 +10765,10 @@
     </row>
     <row r="298" spans="1:16">
       <c r="A298">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C298" t="s">
         <v>83</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="299" spans="1:16">
       <c r="A299">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C299" t="s">
         <v>83</v>
@@ -10823,10 +10823,10 @@
     </row>
     <row r="300" spans="1:16">
       <c r="A300">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C300" t="s">
         <v>83</v>
@@ -10852,10 +10852,10 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C301" t="s">
         <v>83</v>
@@ -10881,10 +10881,10 @@
     </row>
     <row r="302" spans="1:16">
       <c r="A302">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C302" t="s">
         <v>83</v>
@@ -10910,10 +10910,10 @@
     </row>
     <row r="303" spans="1:16">
       <c r="A303">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C303" t="s">
         <v>83</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="304" spans="1:16">
       <c r="A304">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C304" t="s">
         <v>84</v>
@@ -10968,10 +10968,10 @@
     </row>
     <row r="305" spans="1:16">
       <c r="A305">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C305" t="s">
         <v>85</v>
@@ -10997,10 +10997,10 @@
     </row>
     <row r="306" spans="1:16">
       <c r="A306">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C306" t="s">
         <v>86</v>
@@ -11026,10 +11026,10 @@
     </row>
     <row r="307" spans="1:16">
       <c r="A307">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C307" t="s">
         <v>86</v>
@@ -11061,10 +11061,10 @@
     </row>
     <row r="308" spans="1:16">
       <c r="A308">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C308" t="s">
         <v>87</v>
@@ -11090,10 +11090,10 @@
     </row>
     <row r="309" spans="1:16">
       <c r="A309">
-        <v>414</v>
+        <v>308</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C309" t="s">
         <v>88</v>
@@ -11119,10 +11119,10 @@
     </row>
     <row r="310" spans="1:16">
       <c r="A310">
-        <v>415</v>
+        <v>309</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C310" t="s">
         <v>88</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="311" spans="1:16">
       <c r="A311">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C311" t="s">
         <v>89</v>
@@ -11183,10 +11183,10 @@
     </row>
     <row r="312" spans="1:16">
       <c r="A312">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C312" t="s">
         <v>89</v>
@@ -11218,10 +11218,10 @@
     </row>
     <row r="313" spans="1:16">
       <c r="A313">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C313" t="s">
         <v>90</v>
@@ -11256,10 +11256,10 @@
     </row>
     <row r="314" spans="1:16">
       <c r="A314">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C314" t="s">
         <v>91</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="315" spans="1:16">
       <c r="A315">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C315" t="s">
         <v>92</v>
@@ -11314,10 +11314,10 @@
     </row>
     <row r="316" spans="1:16">
       <c r="A316">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C316" t="s">
         <v>93</v>
@@ -11343,10 +11343,10 @@
     </row>
     <row r="317" spans="1:16">
       <c r="A317">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C317" t="s">
         <v>94</v>
@@ -11372,10 +11372,10 @@
     </row>
     <row r="318" spans="1:16">
       <c r="A318">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C318" t="s">
         <v>94</v>
@@ -11401,10 +11401,10 @@
     </row>
     <row r="319" spans="1:16">
       <c r="A319">
-        <v>426</v>
+        <v>318</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C319" t="s">
         <v>94</v>
@@ -11430,10 +11430,10 @@
     </row>
     <row r="320" spans="1:16">
       <c r="A320">
-        <v>427</v>
+        <v>319</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C320" t="s">
         <v>95</v>
@@ -11459,10 +11459,10 @@
     </row>
     <row r="321" spans="1:16">
       <c r="A321">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C321" t="s">
         <v>95</v>
@@ -11488,10 +11488,10 @@
     </row>
     <row r="322" spans="1:16">
       <c r="A322">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C322" t="s">
         <v>95</v>
@@ -11517,10 +11517,10 @@
     </row>
     <row r="323" spans="1:16">
       <c r="A323">
-        <v>430</v>
+        <v>322</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C323" t="s">
         <v>95</v>
@@ -11546,10 +11546,10 @@
     </row>
     <row r="324" spans="1:16">
       <c r="A324">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C324" t="s">
         <v>95</v>
@@ -11575,10 +11575,10 @@
     </row>
     <row r="325" spans="1:16">
       <c r="A325">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C325" t="s">
         <v>95</v>
@@ -11604,10 +11604,10 @@
     </row>
     <row r="326" spans="1:16">
       <c r="A326">
-        <v>433</v>
+        <v>325</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C326" t="s">
         <v>95</v>
@@ -11633,10 +11633,10 @@
     </row>
     <row r="327" spans="1:16">
       <c r="A327">
-        <v>434</v>
+        <v>326</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C327" t="s">
         <v>95</v>
@@ -11662,10 +11662,10 @@
     </row>
     <row r="328" spans="1:16">
       <c r="A328">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C328" t="s">
         <v>95</v>
@@ -11691,10 +11691,10 @@
     </row>
     <row r="329" spans="1:16">
       <c r="A329">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C329" t="s">
         <v>95</v>
@@ -11720,10 +11720,10 @@
     </row>
     <row r="330" spans="1:16">
       <c r="A330">
-        <v>437</v>
+        <v>329</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C330" t="s">
         <v>95</v>
@@ -11749,10 +11749,10 @@
     </row>
     <row r="331" spans="1:16">
       <c r="A331">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C331" t="s">
         <v>95</v>
@@ -11778,10 +11778,10 @@
     </row>
     <row r="332" spans="1:16">
       <c r="A332">
-        <v>439</v>
+        <v>331</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C332" t="s">
         <v>95</v>
@@ -11807,10 +11807,10 @@
     </row>
     <row r="333" spans="1:16">
       <c r="A333">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C333" t="s">
         <v>95</v>
@@ -11836,10 +11836,10 @@
     </row>
     <row r="334" spans="1:16">
       <c r="A334">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C334" t="s">
         <v>95</v>
@@ -11865,10 +11865,10 @@
     </row>
     <row r="335" spans="1:16">
       <c r="A335">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C335" t="s">
         <v>95</v>
@@ -11894,10 +11894,10 @@
     </row>
     <row r="336" spans="1:16">
       <c r="A336">
-        <v>443</v>
+        <v>335</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C336" t="s">
         <v>95</v>
@@ -11923,10 +11923,10 @@
     </row>
     <row r="337" spans="1:16">
       <c r="A337">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C337" t="s">
         <v>95</v>
@@ -11952,10 +11952,10 @@
     </row>
     <row r="338" spans="1:16">
       <c r="A338">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C338" t="s">
         <v>95</v>
@@ -11981,10 +11981,10 @@
     </row>
     <row r="339" spans="1:16">
       <c r="A339">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C339" t="s">
         <v>95</v>
@@ -12010,10 +12010,10 @@
     </row>
     <row r="340" spans="1:16">
       <c r="A340">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C340" t="s">
         <v>95</v>
@@ -12039,10 +12039,10 @@
     </row>
     <row r="341" spans="1:16">
       <c r="A341">
-        <v>448</v>
+        <v>340</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C341" t="s">
         <v>95</v>
@@ -12068,10 +12068,10 @@
     </row>
     <row r="342" spans="1:16">
       <c r="A342">
-        <v>449</v>
+        <v>341</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C342" t="s">
         <v>95</v>
@@ -12097,10 +12097,10 @@
     </row>
     <row r="343" spans="1:16">
       <c r="A343">
-        <v>450</v>
+        <v>342</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C343" t="s">
         <v>95</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="344" spans="1:16">
       <c r="A344">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C344" t="s">
         <v>95</v>
@@ -12155,10 +12155,10 @@
     </row>
     <row r="345" spans="1:16">
       <c r="A345">
-        <v>452</v>
+        <v>344</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C345" t="s">
         <v>95</v>
@@ -12184,10 +12184,10 @@
     </row>
     <row r="346" spans="1:16">
       <c r="A346">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C346" t="s">
         <v>95</v>
@@ -12213,10 +12213,10 @@
     </row>
     <row r="347" spans="1:16">
       <c r="A347">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C347" t="s">
         <v>95</v>
@@ -12242,10 +12242,10 @@
     </row>
     <row r="348" spans="1:16">
       <c r="A348">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C348" t="s">
         <v>95</v>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="349" spans="1:16">
       <c r="A349">
-        <v>456</v>
+        <v>348</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C349" t="s">
         <v>95</v>
@@ -12300,10 +12300,10 @@
     </row>
     <row r="350" spans="1:16">
       <c r="A350">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C350" t="s">
         <v>95</v>
@@ -12329,10 +12329,10 @@
     </row>
     <row r="351" spans="1:16">
       <c r="A351">
-        <v>458</v>
+        <v>350</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C351" t="s">
         <v>95</v>
@@ -12358,10 +12358,10 @@
     </row>
     <row r="352" spans="1:16">
       <c r="A352">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C352" t="s">
         <v>95</v>
@@ -12387,10 +12387,10 @@
     </row>
     <row r="353" spans="1:16">
       <c r="A353">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C353" t="s">
         <v>95</v>
@@ -12416,10 +12416,10 @@
     </row>
     <row r="354" spans="1:16">
       <c r="A354">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C354" t="s">
         <v>95</v>
@@ -12445,10 +12445,10 @@
     </row>
     <row r="355" spans="1:16">
       <c r="A355">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C355" t="s">
         <v>95</v>
@@ -12474,10 +12474,10 @@
     </row>
     <row r="356" spans="1:16">
       <c r="A356">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C356" t="s">
         <v>95</v>
@@ -12503,10 +12503,10 @@
     </row>
     <row r="357" spans="1:16">
       <c r="A357">
-        <v>464</v>
+        <v>356</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C357" t="s">
         <v>95</v>
@@ -12532,10 +12532,10 @@
     </row>
     <row r="358" spans="1:16">
       <c r="A358">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C358" t="s">
         <v>95</v>
@@ -12561,10 +12561,10 @@
     </row>
     <row r="359" spans="1:16">
       <c r="A359">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C359" t="s">
         <v>95</v>
@@ -12590,10 +12590,10 @@
     </row>
     <row r="360" spans="1:16">
       <c r="A360">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C360" t="s">
         <v>95</v>
@@ -12619,10 +12619,10 @@
     </row>
     <row r="361" spans="1:16">
       <c r="A361">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C361" t="s">
         <v>95</v>
@@ -12648,10 +12648,10 @@
     </row>
     <row r="362" spans="1:16">
       <c r="A362">
-        <v>469</v>
+        <v>361</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C362" t="s">
         <v>95</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="363" spans="1:16">
       <c r="A363">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C363" t="s">
         <v>95</v>
@@ -12706,10 +12706,10 @@
     </row>
     <row r="364" spans="1:16">
       <c r="A364">
-        <v>471</v>
+        <v>363</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C364" t="s">
         <v>95</v>
@@ -12735,10 +12735,10 @@
     </row>
     <row r="365" spans="1:16">
       <c r="A365">
-        <v>472</v>
+        <v>364</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C365" t="s">
         <v>95</v>
@@ -12764,10 +12764,10 @@
     </row>
     <row r="366" spans="1:16">
       <c r="A366">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C366" t="s">
         <v>95</v>
@@ -12793,10 +12793,10 @@
     </row>
     <row r="367" spans="1:16">
       <c r="A367">
-        <v>475</v>
+        <v>366</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C367" t="s">
         <v>96</v>
@@ -12822,10 +12822,10 @@
     </row>
     <row r="368" spans="1:16">
       <c r="A368">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C368" t="s">
         <v>97</v>
@@ -12854,10 +12854,10 @@
     </row>
     <row r="369" spans="1:16">
       <c r="A369">
-        <v>481</v>
+        <v>368</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C369" t="s">
         <v>98</v>
@@ -12883,10 +12883,10 @@
     </row>
     <row r="370" spans="1:16">
       <c r="A370">
-        <v>482</v>
+        <v>369</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C370" t="s">
         <v>98</v>
@@ -12912,10 +12912,10 @@
     </row>
     <row r="371" spans="1:16">
       <c r="A371">
-        <v>483</v>
+        <v>370</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C371" t="s">
         <v>98</v>
@@ -12941,10 +12941,10 @@
     </row>
     <row r="372" spans="1:16">
       <c r="A372">
-        <v>485</v>
+        <v>371</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C372" t="s">
         <v>99</v>
@@ -12970,10 +12970,10 @@
     </row>
     <row r="373" spans="1:16">
       <c r="A373">
-        <v>491</v>
+        <v>372</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C373" t="s">
         <v>100</v>
@@ -12999,10 +12999,10 @@
     </row>
     <row r="374" spans="1:16">
       <c r="A374">
-        <v>492</v>
+        <v>373</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C374" t="s">
         <v>101</v>
@@ -13028,10 +13028,10 @@
     </row>
     <row r="375" spans="1:16">
       <c r="A375">
-        <v>495</v>
+        <v>374</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C375" t="s">
         <v>102</v>
@@ -13057,10 +13057,10 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C376" t="s">
         <v>102</v>
@@ -13086,10 +13086,10 @@
     </row>
     <row r="377" spans="1:16">
       <c r="A377">
-        <v>498</v>
+        <v>376</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C377" t="s">
         <v>103</v>
@@ -13121,10 +13121,10 @@
     </row>
     <row r="378" spans="1:16">
       <c r="A378">
-        <v>499</v>
+        <v>377</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C378" t="s">
         <v>104</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="379" spans="1:16">
       <c r="A379">
-        <v>501</v>
+        <v>378</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C379" t="s">
         <v>105</v>
@@ -13185,10 +13185,10 @@
     </row>
     <row r="380" spans="1:16">
       <c r="A380">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C380" t="s">
         <v>106</v>
@@ -13214,10 +13214,10 @@
     </row>
     <row r="381" spans="1:16">
       <c r="A381">
-        <v>503</v>
+        <v>380</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C381" t="s">
         <v>107</v>
@@ -13258,10 +13258,10 @@
     </row>
     <row r="382" spans="1:16">
       <c r="A382">
-        <v>504</v>
+        <v>381</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C382" t="s">
         <v>107</v>
@@ -13302,10 +13302,10 @@
     </row>
     <row r="383" spans="1:16">
       <c r="A383">
-        <v>505</v>
+        <v>382</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C383" t="s">
         <v>107</v>
@@ -13346,10 +13346,10 @@
     </row>
     <row r="384" spans="1:16">
       <c r="A384">
-        <v>514</v>
+        <v>383</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C384" t="s">
         <v>108</v>
@@ -13384,10 +13384,10 @@
     </row>
     <row r="385" spans="1:16">
       <c r="A385">
-        <v>515</v>
+        <v>384</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C385" t="s">
         <v>109</v>
@@ -13413,10 +13413,10 @@
     </row>
     <row r="386" spans="1:16">
       <c r="A386">
-        <v>516</v>
+        <v>385</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C386" t="s">
         <v>110</v>
@@ -13442,10 +13442,10 @@
     </row>
     <row r="387" spans="1:16">
       <c r="A387">
-        <v>517</v>
+        <v>386</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C387" t="s">
         <v>111</v>
@@ -13471,10 +13471,10 @@
     </row>
     <row r="388" spans="1:16">
       <c r="A388">
-        <v>518</v>
+        <v>387</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C388" t="s">
         <v>112</v>
@@ -13503,10 +13503,10 @@
     </row>
     <row r="389" spans="1:16">
       <c r="A389">
-        <v>519</v>
+        <v>388</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C389" t="s">
         <v>113</v>
@@ -13532,10 +13532,10 @@
     </row>
     <row r="390" spans="1:16">
       <c r="A390">
-        <v>520</v>
+        <v>389</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C390" t="s">
         <v>114</v>
@@ -13561,10 +13561,10 @@
     </row>
     <row r="391" spans="1:16">
       <c r="A391">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C391" t="s">
         <v>115</v>
@@ -13596,10 +13596,10 @@
     </row>
     <row r="392" spans="1:16">
       <c r="A392">
-        <v>523</v>
+        <v>391</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C392" t="s">
         <v>116</v>
@@ -13625,10 +13625,10 @@
     </row>
     <row r="393" spans="1:16">
       <c r="A393">
-        <v>524</v>
+        <v>392</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C393" t="s">
         <v>116</v>
@@ -13654,10 +13654,10 @@
     </row>
     <row r="394" spans="1:16">
       <c r="A394">
-        <v>525</v>
+        <v>393</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C394" t="s">
         <v>117</v>
@@ -13683,10 +13683,10 @@
     </row>
     <row r="395" spans="1:16">
       <c r="A395">
-        <v>526</v>
+        <v>394</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C395" t="s">
         <v>118</v>
@@ -13712,10 +13712,10 @@
     </row>
     <row r="396" spans="1:16">
       <c r="A396">
-        <v>527</v>
+        <v>395</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C396" t="s">
         <v>118</v>
@@ -13741,10 +13741,10 @@
     </row>
     <row r="397" spans="1:16">
       <c r="A397">
-        <v>528</v>
+        <v>396</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C397" t="s">
         <v>118</v>
@@ -13770,10 +13770,10 @@
     </row>
     <row r="398" spans="1:16">
       <c r="A398">
-        <v>529</v>
+        <v>397</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C398" t="s">
         <v>118</v>
@@ -13799,10 +13799,10 @@
     </row>
     <row r="399" spans="1:16">
       <c r="A399">
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C399" t="s">
         <v>118</v>
@@ -13828,10 +13828,10 @@
     </row>
     <row r="400" spans="1:16">
       <c r="A400">
-        <v>531</v>
+        <v>399</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C400" t="s">
         <v>118</v>
@@ -13857,10 +13857,10 @@
     </row>
     <row r="401" spans="1:16">
       <c r="A401">
-        <v>532</v>
+        <v>400</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C401" t="s">
         <v>118</v>
@@ -13886,10 +13886,10 @@
     </row>
     <row r="402" spans="1:16">
       <c r="A402">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C402" t="s">
         <v>118</v>
@@ -13915,10 +13915,10 @@
     </row>
     <row r="403" spans="1:16">
       <c r="A403">
-        <v>534</v>
+        <v>402</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C403" t="s">
         <v>118</v>
@@ -13944,10 +13944,10 @@
     </row>
     <row r="404" spans="1:16">
       <c r="A404">
-        <v>535</v>
+        <v>403</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C404" t="s">
         <v>118</v>
@@ -13973,10 +13973,10 @@
     </row>
     <row r="405" spans="1:16">
       <c r="A405">
-        <v>537</v>
+        <v>404</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C405" t="s">
         <v>119</v>
@@ -14008,10 +14008,10 @@
     </row>
     <row r="406" spans="1:16">
       <c r="A406">
-        <v>538</v>
+        <v>405</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C406" t="s">
         <v>119</v>
@@ -14043,10 +14043,10 @@
     </row>
     <row r="407" spans="1:16">
       <c r="A407">
-        <v>543</v>
+        <v>406</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C407" t="s">
         <v>120</v>
@@ -14078,10 +14078,10 @@
     </row>
     <row r="408" spans="1:16">
       <c r="A408">
-        <v>544</v>
+        <v>407</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C408" t="s">
         <v>120</v>
@@ -14113,10 +14113,10 @@
     </row>
     <row r="409" spans="1:16">
       <c r="A409">
-        <v>545</v>
+        <v>408</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C409" t="s">
         <v>120</v>
@@ -14148,10 +14148,10 @@
     </row>
     <row r="410" spans="1:16">
       <c r="A410">
-        <v>546</v>
+        <v>409</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C410" t="s">
         <v>121</v>
@@ -14183,10 +14183,10 @@
     </row>
     <row r="411" spans="1:16">
       <c r="A411">
-        <v>547</v>
+        <v>410</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C411" t="s">
         <v>121</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="412" spans="1:16">
       <c r="A412">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C412" t="s">
         <v>121</v>
@@ -14253,10 +14253,10 @@
     </row>
     <row r="413" spans="1:16">
       <c r="A413">
-        <v>549</v>
+        <v>412</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C413" t="s">
         <v>122</v>
@@ -14282,10 +14282,10 @@
     </row>
     <row r="414" spans="1:16">
       <c r="A414">
-        <v>550</v>
+        <v>413</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C414" t="s">
         <v>123</v>
@@ -14311,10 +14311,10 @@
     </row>
     <row r="415" spans="1:16">
       <c r="A415">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C415" t="s">
         <v>123</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="416" spans="1:16">
       <c r="A416">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C416" t="s">
         <v>124</v>
@@ -14375,10 +14375,10 @@
     </row>
     <row r="417" spans="1:16">
       <c r="A417">
-        <v>555</v>
+        <v>416</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C417" t="s">
         <v>125</v>
@@ -14404,10 +14404,10 @@
     </row>
     <row r="418" spans="1:16">
       <c r="A418">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C418" t="s">
         <v>125</v>
@@ -14433,10 +14433,10 @@
     </row>
     <row r="419" spans="1:16">
       <c r="A419">
-        <v>559</v>
+        <v>418</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C419" t="s">
         <v>126</v>
@@ -14471,10 +14471,10 @@
     </row>
     <row r="420" spans="1:16">
       <c r="A420">
-        <v>580</v>
+        <v>419</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C420" t="s">
         <v>127</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="421" spans="1:16">
       <c r="A421">
-        <v>581</v>
+        <v>420</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C421" t="s">
         <v>127</v>
@@ -14547,10 +14547,10 @@
     </row>
     <row r="422" spans="1:16">
       <c r="A422">
-        <v>583</v>
+        <v>421</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C422" t="s">
         <v>128</v>
@@ -14582,10 +14582,10 @@
     </row>
     <row r="423" spans="1:16">
       <c r="A423">
-        <v>641</v>
+        <v>422</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C423" t="s">
         <v>129</v>
@@ -14611,10 +14611,10 @@
     </row>
     <row r="424" spans="1:16">
       <c r="A424">
-        <v>642</v>
+        <v>423</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C424" t="s">
         <v>129</v>
@@ -14640,10 +14640,10 @@
     </row>
     <row r="425" spans="1:16">
       <c r="A425">
-        <v>643</v>
+        <v>424</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C425" t="s">
         <v>129</v>
@@ -14669,10 +14669,10 @@
     </row>
     <row r="426" spans="1:16">
       <c r="A426">
-        <v>644</v>
+        <v>425</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C426" t="s">
         <v>129</v>
@@ -14698,10 +14698,10 @@
     </row>
     <row r="427" spans="1:16">
       <c r="A427">
-        <v>645</v>
+        <v>426</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C427" t="s">
         <v>129</v>
@@ -14727,10 +14727,10 @@
     </row>
     <row r="428" spans="1:16">
       <c r="A428">
-        <v>646</v>
+        <v>427</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C428" t="s">
         <v>130</v>
@@ -14756,10 +14756,10 @@
     </row>
     <row r="429" spans="1:16">
       <c r="A429">
-        <v>647</v>
+        <v>428</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C429" t="s">
         <v>130</v>
@@ -14785,10 +14785,10 @@
     </row>
     <row r="430" spans="1:16">
       <c r="A430">
-        <v>650</v>
+        <v>429</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C430" t="s">
         <v>131</v>
@@ -14814,10 +14814,10 @@
     </row>
     <row r="431" spans="1:16">
       <c r="A431">
-        <v>651</v>
+        <v>430</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C431" t="s">
         <v>131</v>
@@ -14843,10 +14843,10 @@
     </row>
     <row r="432" spans="1:16">
       <c r="A432">
-        <v>652</v>
+        <v>431</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C432" t="s">
         <v>131</v>
@@ -14872,10 +14872,10 @@
     </row>
     <row r="433" spans="1:16">
       <c r="A433">
-        <v>653</v>
+        <v>432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C433" t="s">
         <v>131</v>
@@ -14901,10 +14901,10 @@
     </row>
     <row r="434" spans="1:16">
       <c r="A434">
-        <v>654</v>
+        <v>433</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C434" t="s">
         <v>131</v>
@@ -14930,10 +14930,10 @@
     </row>
     <row r="435" spans="1:16">
       <c r="A435">
-        <v>655</v>
+        <v>434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C435" t="s">
         <v>131</v>
@@ -14959,10 +14959,10 @@
     </row>
     <row r="436" spans="1:16">
       <c r="A436">
-        <v>656</v>
+        <v>435</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C436" t="s">
         <v>131</v>
@@ -14988,10 +14988,10 @@
     </row>
     <row r="437" spans="1:16">
       <c r="A437">
-        <v>657</v>
+        <v>436</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C437" t="s">
         <v>131</v>
@@ -15017,10 +15017,10 @@
     </row>
     <row r="438" spans="1:16">
       <c r="A438">
-        <v>658</v>
+        <v>437</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C438" t="s">
         <v>131</v>
@@ -15046,10 +15046,10 @@
     </row>
     <row r="439" spans="1:16">
       <c r="A439">
-        <v>659</v>
+        <v>438</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C439" t="s">
         <v>131</v>
@@ -15075,10 +15075,10 @@
     </row>
     <row r="440" spans="1:16">
       <c r="A440">
-        <v>660</v>
+        <v>439</v>
       </c>
       <c r="B440">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C440" t="s">
         <v>131</v>
@@ -15104,10 +15104,10 @@
     </row>
     <row r="441" spans="1:16">
       <c r="A441">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C441" t="s">
         <v>131</v>
@@ -15133,10 +15133,10 @@
     </row>
     <row r="442" spans="1:16">
       <c r="A442">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C442" t="s">
         <v>131</v>
@@ -15162,10 +15162,10 @@
     </row>
     <row r="443" spans="1:16">
       <c r="A443">
-        <v>663</v>
+        <v>442</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C443" t="s">
         <v>131</v>
@@ -15191,10 +15191,10 @@
     </row>
     <row r="444" spans="1:16">
       <c r="A444">
-        <v>664</v>
+        <v>443</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C444" t="s">
         <v>131</v>
@@ -15220,10 +15220,10 @@
     </row>
     <row r="445" spans="1:16">
       <c r="A445">
-        <v>665</v>
+        <v>444</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C445" t="s">
         <v>132</v>
@@ -15249,10 +15249,10 @@
     </row>
     <row r="446" spans="1:16">
       <c r="A446">
-        <v>666</v>
+        <v>445</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C446" t="s">
         <v>132</v>
@@ -15278,10 +15278,10 @@
     </row>
     <row r="447" spans="1:16">
       <c r="A447">
-        <v>667</v>
+        <v>446</v>
       </c>
       <c r="B447">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C447" t="s">
         <v>132</v>
@@ -15322,10 +15322,10 @@
     </row>
     <row r="448" spans="1:16">
       <c r="A448">
-        <v>668</v>
+        <v>447</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C448" t="s">
         <v>132</v>
@@ -15366,10 +15366,10 @@
     </row>
     <row r="449" spans="1:16">
       <c r="A449">
-        <v>669</v>
+        <v>448</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C449" t="s">
         <v>132</v>
@@ -15410,10 +15410,10 @@
     </row>
     <row r="450" spans="1:16">
       <c r="A450">
-        <v>670</v>
+        <v>449</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C450" t="s">
         <v>132</v>
@@ -15454,10 +15454,10 @@
     </row>
     <row r="451" spans="1:16">
       <c r="A451">
-        <v>671</v>
+        <v>450</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C451" t="s">
         <v>132</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="452" spans="1:16">
       <c r="A452">
-        <v>672</v>
+        <v>451</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C452" t="s">
         <v>132</v>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="453" spans="1:16">
       <c r="A453">
-        <v>673</v>
+        <v>452</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C453" t="s">
         <v>132</v>
@@ -15586,10 +15586,10 @@
     </row>
     <row r="454" spans="1:16">
       <c r="A454">
-        <v>674</v>
+        <v>453</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C454" t="s">
         <v>132</v>
@@ -15630,10 +15630,10 @@
     </row>
     <row r="455" spans="1:16">
       <c r="A455">
-        <v>675</v>
+        <v>454</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C455" t="s">
         <v>132</v>
@@ -15674,10 +15674,10 @@
     </row>
     <row r="456" spans="1:16">
       <c r="A456">
-        <v>676</v>
+        <v>455</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C456" t="s">
         <v>133</v>
@@ -15703,10 +15703,10 @@
     </row>
     <row r="457" spans="1:16">
       <c r="A457">
-        <v>677</v>
+        <v>456</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C457" t="s">
         <v>133</v>
@@ -15732,10 +15732,10 @@
     </row>
     <row r="458" spans="1:16">
       <c r="A458">
-        <v>678</v>
+        <v>457</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C458" t="s">
         <v>133</v>
@@ -15761,10 +15761,10 @@
     </row>
     <row r="459" spans="1:16">
       <c r="A459">
-        <v>679</v>
+        <v>458</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C459" t="s">
         <v>133</v>
@@ -15790,10 +15790,10 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460">
-        <v>680</v>
+        <v>459</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C460" t="s">
         <v>133</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461">
-        <v>681</v>
+        <v>460</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C461" t="s">
         <v>134</v>
@@ -15863,10 +15863,10 @@
     </row>
     <row r="462" spans="1:16">
       <c r="A462">
-        <v>682</v>
+        <v>461</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C462" t="s">
         <v>134</v>
@@ -15907,10 +15907,10 @@
     </row>
     <row r="463" spans="1:16">
       <c r="A463">
-        <v>683</v>
+        <v>462</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C463" t="s">
         <v>134</v>
@@ -15951,10 +15951,10 @@
     </row>
     <row r="464" spans="1:16">
       <c r="A464">
-        <v>684</v>
+        <v>463</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C464" t="s">
         <v>134</v>
@@ -15995,10 +15995,10 @@
     </row>
     <row r="465" spans="1:16">
       <c r="A465">
-        <v>685</v>
+        <v>464</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C465" t="s">
         <v>134</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="466" spans="1:16">
       <c r="A466">
-        <v>686</v>
+        <v>465</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C466" t="s">
         <v>134</v>
@@ -16083,10 +16083,10 @@
     </row>
     <row r="467" spans="1:16">
       <c r="A467">
-        <v>687</v>
+        <v>466</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C467" t="s">
         <v>134</v>
@@ -16127,10 +16127,10 @@
     </row>
     <row r="468" spans="1:16">
       <c r="A468">
-        <v>688</v>
+        <v>467</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C468" t="s">
         <v>134</v>
@@ -16171,10 +16171,10 @@
     </row>
     <row r="469" spans="1:16">
       <c r="A469">
-        <v>689</v>
+        <v>468</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C469" t="s">
         <v>134</v>
@@ -16215,10 +16215,10 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470">
-        <v>690</v>
+        <v>469</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C470" t="s">
         <v>134</v>
@@ -16259,10 +16259,10 @@
     </row>
     <row r="471" spans="1:16">
       <c r="A471">
-        <v>691</v>
+        <v>470</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C471" t="s">
         <v>134</v>
@@ -16303,10 +16303,10 @@
     </row>
     <row r="472" spans="1:16">
       <c r="A472">
-        <v>692</v>
+        <v>471</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C472" t="s">
         <v>134</v>
@@ -16347,10 +16347,10 @@
     </row>
     <row r="473" spans="1:16">
       <c r="A473">
-        <v>693</v>
+        <v>472</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C473" t="s">
         <v>134</v>
@@ -16391,10 +16391,10 @@
     </row>
     <row r="474" spans="1:16">
       <c r="A474">
-        <v>694</v>
+        <v>473</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C474" t="s">
         <v>134</v>
@@ -16435,10 +16435,10 @@
     </row>
     <row r="475" spans="1:16">
       <c r="A475">
-        <v>695</v>
+        <v>474</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C475" t="s">
         <v>134</v>
@@ -16479,10 +16479,10 @@
     </row>
     <row r="476" spans="1:16">
       <c r="A476">
-        <v>696</v>
+        <v>475</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C476" t="s">
         <v>134</v>
@@ -16523,10 +16523,10 @@
     </row>
     <row r="477" spans="1:16">
       <c r="A477">
-        <v>697</v>
+        <v>476</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C477" t="s">
         <v>134</v>
@@ -16567,10 +16567,10 @@
     </row>
     <row r="478" spans="1:16">
       <c r="A478">
-        <v>698</v>
+        <v>477</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C478" t="s">
         <v>134</v>
@@ -16611,10 +16611,10 @@
     </row>
     <row r="479" spans="1:16">
       <c r="A479">
-        <v>699</v>
+        <v>478</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C479" t="s">
         <v>134</v>
@@ -16655,10 +16655,10 @@
     </row>
     <row r="480" spans="1:16">
       <c r="A480">
-        <v>700</v>
+        <v>479</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C480" t="s">
         <v>134</v>
@@ -16699,10 +16699,10 @@
     </row>
     <row r="481" spans="1:16">
       <c r="A481">
-        <v>701</v>
+        <v>480</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C481" t="s">
         <v>134</v>
@@ -16743,10 +16743,10 @@
     </row>
     <row r="482" spans="1:16">
       <c r="A482">
-        <v>702</v>
+        <v>481</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C482" t="s">
         <v>134</v>
@@ -16787,10 +16787,10 @@
     </row>
     <row r="483" spans="1:16">
       <c r="A483">
-        <v>703</v>
+        <v>482</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C483" t="s">
         <v>134</v>
@@ -16831,10 +16831,10 @@
     </row>
     <row r="484" spans="1:16">
       <c r="A484">
-        <v>704</v>
+        <v>483</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C484" t="s">
         <v>134</v>
@@ -16875,10 +16875,10 @@
     </row>
     <row r="485" spans="1:16">
       <c r="A485">
-        <v>705</v>
+        <v>484</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C485" t="s">
         <v>134</v>
@@ -16919,10 +16919,10 @@
     </row>
     <row r="486" spans="1:16">
       <c r="A486">
-        <v>706</v>
+        <v>485</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C486" t="s">
         <v>135</v>
@@ -16948,10 +16948,10 @@
     </row>
     <row r="487" spans="1:16">
       <c r="A487">
-        <v>707</v>
+        <v>486</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C487" t="s">
         <v>136</v>
@@ -16977,10 +16977,10 @@
     </row>
     <row r="488" spans="1:16">
       <c r="A488">
-        <v>708</v>
+        <v>487</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C488" t="s">
         <v>136</v>
@@ -17006,10 +17006,10 @@
     </row>
     <row r="489" spans="1:16">
       <c r="A489">
-        <v>709</v>
+        <v>488</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C489" t="s">
         <v>137</v>
@@ -17035,10 +17035,10 @@
     </row>
     <row r="490" spans="1:16">
       <c r="A490">
-        <v>710</v>
+        <v>489</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C490" t="s">
         <v>138</v>
@@ -17064,10 +17064,10 @@
     </row>
     <row r="491" spans="1:16">
       <c r="A491">
-        <v>711</v>
+        <v>490</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C491" t="s">
         <v>138</v>
@@ -17093,10 +17093,10 @@
     </row>
     <row r="492" spans="1:16">
       <c r="A492">
-        <v>712</v>
+        <v>491</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C492" t="s">
         <v>138</v>
@@ -17122,10 +17122,10 @@
     </row>
     <row r="493" spans="1:16">
       <c r="A493">
-        <v>713</v>
+        <v>492</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C493" t="s">
         <v>138</v>
@@ -17151,10 +17151,10 @@
     </row>
     <row r="494" spans="1:16">
       <c r="A494">
-        <v>714</v>
+        <v>493</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C494" t="s">
         <v>138</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="495" spans="1:16">
       <c r="A495">
-        <v>715</v>
+        <v>494</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C495" t="s">
         <v>138</v>
@@ -17209,10 +17209,10 @@
     </row>
     <row r="496" spans="1:16">
       <c r="A496">
-        <v>716</v>
+        <v>495</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C496" t="s">
         <v>139</v>
@@ -17238,10 +17238,10 @@
     </row>
     <row r="497" spans="1:16">
       <c r="A497">
-        <v>744</v>
+        <v>496</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C497" t="s">
         <v>140</v>
@@ -17267,10 +17267,10 @@
     </row>
     <row r="498" spans="1:16">
       <c r="A498">
-        <v>745</v>
+        <v>497</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C498" t="s">
         <v>140</v>
@@ -17296,10 +17296,10 @@
     </row>
     <row r="499" spans="1:16">
       <c r="A499">
-        <v>750</v>
+        <v>498</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C499" t="s">
         <v>141</v>
@@ -17325,10 +17325,10 @@
     </row>
     <row r="500" spans="1:16">
       <c r="A500">
-        <v>751</v>
+        <v>499</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C500" t="s">
         <v>141</v>
@@ -17354,10 +17354,10 @@
     </row>
     <row r="501" spans="1:16">
       <c r="A501">
-        <v>752</v>
+        <v>500</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C501" t="s">
         <v>141</v>
@@ -17383,10 +17383,10 @@
     </row>
     <row r="502" spans="1:16">
       <c r="A502">
-        <v>753</v>
+        <v>501</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C502" t="s">
         <v>142</v>
@@ -17418,10 +17418,10 @@
     </row>
     <row r="503" spans="1:16">
       <c r="A503">
-        <v>754</v>
+        <v>502</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C503" t="s">
         <v>142</v>
@@ -17459,10 +17459,10 @@
     </row>
     <row r="504" spans="1:16">
       <c r="A504">
-        <v>755</v>
+        <v>503</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C504" t="s">
         <v>142</v>
@@ -17488,10 +17488,10 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505">
-        <v>756</v>
+        <v>504</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C505" t="s">
         <v>142</v>
@@ -17517,10 +17517,10 @@
     </row>
     <row r="506" spans="1:16">
       <c r="A506">
-        <v>757</v>
+        <v>505</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C506" t="s">
         <v>142</v>
@@ -17546,10 +17546,10 @@
     </row>
     <row r="507" spans="1:16">
       <c r="A507">
-        <v>758</v>
+        <v>506</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C507" t="s">
         <v>142</v>
@@ -17575,10 +17575,10 @@
     </row>
     <row r="508" spans="1:16">
       <c r="A508">
-        <v>761</v>
+        <v>507</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C508" t="s">
         <v>142</v>
@@ -17604,10 +17604,10 @@
     </row>
     <row r="509" spans="1:16">
       <c r="A509">
-        <v>762</v>
+        <v>508</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C509" t="s">
         <v>142</v>
@@ -17642,10 +17642,10 @@
     </row>
     <row r="510" spans="1:16">
       <c r="A510">
-        <v>763</v>
+        <v>509</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C510" t="s">
         <v>142</v>
@@ -17674,10 +17674,10 @@
     </row>
     <row r="511" spans="1:16">
       <c r="A511">
-        <v>764</v>
+        <v>510</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C511" t="s">
         <v>142</v>
@@ -17703,10 +17703,10 @@
     </row>
     <row r="512" spans="1:16">
       <c r="A512">
-        <v>766</v>
+        <v>511</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C512" t="s">
         <v>142</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="513" spans="1:16">
       <c r="A513">
-        <v>767</v>
+        <v>512</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C513" t="s">
         <v>142</v>
@@ -17779,10 +17779,10 @@
     </row>
     <row r="514" spans="1:16">
       <c r="A514">
-        <v>768</v>
+        <v>513</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C514" t="s">
         <v>142</v>
@@ -17808,10 +17808,10 @@
     </row>
     <row r="515" spans="1:16">
       <c r="A515">
-        <v>770</v>
+        <v>514</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C515" t="s">
         <v>142</v>
@@ -17837,10 +17837,10 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516">
-        <v>771</v>
+        <v>515</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C516" t="s">
         <v>142</v>
@@ -17866,10 +17866,10 @@
     </row>
     <row r="517" spans="1:16">
       <c r="A517">
-        <v>772</v>
+        <v>516</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C517" t="s">
         <v>142</v>
@@ -17895,10 +17895,10 @@
     </row>
     <row r="518" spans="1:16">
       <c r="A518">
-        <v>773</v>
+        <v>517</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C518" t="s">
         <v>142</v>
@@ -17927,10 +17927,10 @@
     </row>
     <row r="519" spans="1:16">
       <c r="A519">
-        <v>774</v>
+        <v>518</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C519" t="s">
         <v>142</v>
@@ -17968,10 +17968,10 @@
     </row>
     <row r="520" spans="1:16">
       <c r="A520">
-        <v>775</v>
+        <v>519</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C520" t="s">
         <v>142</v>
@@ -18003,10 +18003,10 @@
     </row>
     <row r="521" spans="1:16">
       <c r="A521">
-        <v>776</v>
+        <v>520</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C521" t="s">
         <v>142</v>
@@ -18038,10 +18038,10 @@
     </row>
     <row r="522" spans="1:16">
       <c r="A522">
-        <v>778</v>
+        <v>521</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C522" t="s">
         <v>142</v>
@@ -18070,10 +18070,10 @@
     </row>
     <row r="523" spans="1:16">
       <c r="A523">
-        <v>779</v>
+        <v>522</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C523" t="s">
         <v>142</v>
@@ -18111,10 +18111,10 @@
     </row>
     <row r="524" spans="1:16">
       <c r="A524">
-        <v>780</v>
+        <v>523</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C524" t="s">
         <v>142</v>
@@ -18143,10 +18143,10 @@
     </row>
     <row r="525" spans="1:16">
       <c r="A525">
-        <v>781</v>
+        <v>524</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C525" t="s">
         <v>142</v>
@@ -18172,10 +18172,10 @@
     </row>
     <row r="526" spans="1:16">
       <c r="A526">
-        <v>783</v>
+        <v>525</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C526" t="s">
         <v>142</v>
@@ -18207,10 +18207,10 @@
     </row>
     <row r="527" spans="1:16">
       <c r="A527">
-        <v>785</v>
+        <v>526</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C527" t="s">
         <v>142</v>
@@ -18242,10 +18242,10 @@
     </row>
     <row r="528" spans="1:16">
       <c r="A528">
-        <v>786</v>
+        <v>527</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C528" t="s">
         <v>142</v>
@@ -18283,10 +18283,10 @@
     </row>
     <row r="529" spans="1:16">
       <c r="A529">
-        <v>787</v>
+        <v>528</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C529" t="s">
         <v>142</v>
@@ -18312,10 +18312,10 @@
     </row>
     <row r="530" spans="1:16">
       <c r="A530">
-        <v>788</v>
+        <v>529</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C530" t="s">
         <v>142</v>
@@ -18341,10 +18341,10 @@
     </row>
     <row r="531" spans="1:16">
       <c r="A531">
-        <v>789</v>
+        <v>530</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C531" t="s">
         <v>142</v>
@@ -18370,10 +18370,10 @@
     </row>
     <row r="532" spans="1:16">
       <c r="A532">
-        <v>790</v>
+        <v>531</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C532" t="s">
         <v>142</v>
@@ -18402,10 +18402,10 @@
     </row>
     <row r="533" spans="1:16">
       <c r="A533">
-        <v>791</v>
+        <v>532</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C533" t="s">
         <v>142</v>
@@ -18434,10 +18434,10 @@
     </row>
     <row r="534" spans="1:16">
       <c r="A534">
-        <v>792</v>
+        <v>533</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C534" t="s">
         <v>142</v>
@@ -18463,10 +18463,10 @@
     </row>
     <row r="535" spans="1:16">
       <c r="A535">
-        <v>794</v>
+        <v>534</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C535" t="s">
         <v>142</v>
@@ -18498,10 +18498,10 @@
     </row>
     <row r="536" spans="1:16">
       <c r="A536">
-        <v>795</v>
+        <v>535</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C536" t="s">
         <v>142</v>
@@ -18533,10 +18533,10 @@
     </row>
     <row r="537" spans="1:16">
       <c r="A537">
-        <v>796</v>
+        <v>536</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C537" t="s">
         <v>142</v>
@@ -18574,10 +18574,10 @@
     </row>
     <row r="538" spans="1:16">
       <c r="A538">
-        <v>797</v>
+        <v>537</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C538" t="s">
         <v>142</v>
@@ -18603,10 +18603,10 @@
     </row>
     <row r="539" spans="1:16">
       <c r="A539">
-        <v>799</v>
+        <v>538</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C539" t="s">
         <v>142</v>
@@ -18632,10 +18632,10 @@
     </row>
     <row r="540" spans="1:16">
       <c r="A540">
-        <v>800</v>
+        <v>539</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C540" t="s">
         <v>142</v>
@@ -18664,10 +18664,10 @@
     </row>
     <row r="541" spans="1:16">
       <c r="A541">
-        <v>801</v>
+        <v>540</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C541" t="s">
         <v>142</v>
@@ -18693,10 +18693,10 @@
     </row>
     <row r="542" spans="1:16">
       <c r="A542">
-        <v>803</v>
+        <v>541</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C542" t="s">
         <v>142</v>
@@ -18722,10 +18722,10 @@
     </row>
     <row r="543" spans="1:16">
       <c r="A543">
-        <v>805</v>
+        <v>542</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C543" t="s">
         <v>142</v>
@@ -18751,10 +18751,10 @@
     </row>
     <row r="544" spans="1:16">
       <c r="A544">
-        <v>807</v>
+        <v>543</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C544" t="s">
         <v>142</v>
@@ -18792,10 +18792,10 @@
     </row>
     <row r="545" spans="1:16">
       <c r="A545">
-        <v>808</v>
+        <v>544</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C545" t="s">
         <v>142</v>
@@ -18821,10 +18821,10 @@
     </row>
     <row r="546" spans="1:16">
       <c r="A546">
-        <v>809</v>
+        <v>545</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C546" t="s">
         <v>142</v>
@@ -18850,10 +18850,10 @@
     </row>
     <row r="547" spans="1:16">
       <c r="A547">
-        <v>811</v>
+        <v>546</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C547" t="s">
         <v>142</v>
@@ -18885,10 +18885,10 @@
     </row>
     <row r="548" spans="1:16">
       <c r="A548">
-        <v>812</v>
+        <v>547</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C548" t="s">
         <v>142</v>
@@ -18920,10 +18920,10 @@
     </row>
     <row r="549" spans="1:16">
       <c r="A549">
-        <v>813</v>
+        <v>548</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C549" t="s">
         <v>142</v>
@@ -18949,10 +18949,10 @@
     </row>
     <row r="550" spans="1:16">
       <c r="A550">
-        <v>814</v>
+        <v>549</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C550" t="s">
         <v>142</v>
@@ -18978,10 +18978,10 @@
     </row>
     <row r="551" spans="1:16">
       <c r="A551">
-        <v>818</v>
+        <v>550</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C551" t="s">
         <v>142</v>
@@ -19013,10 +19013,10 @@
     </row>
     <row r="552" spans="1:16">
       <c r="A552">
-        <v>819</v>
+        <v>551</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C552" t="s">
         <v>142</v>
@@ -19054,10 +19054,10 @@
     </row>
     <row r="553" spans="1:16">
       <c r="A553">
-        <v>820</v>
+        <v>552</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C553" t="s">
         <v>142</v>
@@ -19083,10 +19083,10 @@
     </row>
     <row r="554" spans="1:16">
       <c r="A554">
-        <v>821</v>
+        <v>553</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C554" t="s">
         <v>142</v>
@@ -19112,10 +19112,10 @@
     </row>
     <row r="555" spans="1:16">
       <c r="A555">
-        <v>823</v>
+        <v>554</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C555" t="s">
         <v>142</v>
@@ -19141,10 +19141,10 @@
     </row>
     <row r="556" spans="1:16">
       <c r="A556">
-        <v>824</v>
+        <v>555</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C556" t="s">
         <v>142</v>
@@ -19170,10 +19170,10 @@
     </row>
     <row r="557" spans="1:16">
       <c r="A557">
-        <v>827</v>
+        <v>556</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C557" t="s">
         <v>142</v>
@@ -19199,10 +19199,10 @@
     </row>
     <row r="558" spans="1:16">
       <c r="A558">
-        <v>828</v>
+        <v>557</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C558" t="s">
         <v>142</v>
@@ -19240,10 +19240,10 @@
     </row>
     <row r="559" spans="1:16">
       <c r="A559">
-        <v>829</v>
+        <v>558</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C559" t="s">
         <v>142</v>
@@ -19269,10 +19269,10 @@
     </row>
     <row r="560" spans="1:16">
       <c r="A560">
-        <v>831</v>
+        <v>559</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C560" t="s">
         <v>142</v>
@@ -19304,10 +19304,10 @@
     </row>
     <row r="561" spans="1:16">
       <c r="A561">
-        <v>832</v>
+        <v>560</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C561" t="s">
         <v>142</v>
@@ -19345,10 +19345,10 @@
     </row>
     <row r="562" spans="1:16">
       <c r="A562">
-        <v>833</v>
+        <v>561</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C562" t="s">
         <v>142</v>
@@ -19386,10 +19386,10 @@
     </row>
     <row r="563" spans="1:16">
       <c r="A563">
-        <v>834</v>
+        <v>562</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C563" t="s">
         <v>142</v>
@@ -19427,10 +19427,10 @@
     </row>
     <row r="564" spans="1:16">
       <c r="A564">
-        <v>835</v>
+        <v>563</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C564" t="s">
         <v>142</v>
@@ -19468,10 +19468,10 @@
     </row>
     <row r="565" spans="1:16">
       <c r="A565">
-        <v>839</v>
+        <v>564</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C565" t="s">
         <v>142</v>
@@ -19497,10 +19497,10 @@
     </row>
     <row r="566" spans="1:16">
       <c r="A566">
-        <v>842</v>
+        <v>565</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C566" t="s">
         <v>142</v>
@@ -19526,10 +19526,10 @@
     </row>
     <row r="567" spans="1:16">
       <c r="A567">
-        <v>843</v>
+        <v>566</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C567" t="s">
         <v>142</v>
@@ -19555,10 +19555,10 @@
     </row>
     <row r="568" spans="1:16">
       <c r="A568">
-        <v>844</v>
+        <v>567</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C568" t="s">
         <v>142</v>
@@ -19590,10 +19590,10 @@
     </row>
     <row r="569" spans="1:16">
       <c r="A569">
-        <v>847</v>
+        <v>568</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C569" t="s">
         <v>142</v>
@@ -19619,10 +19619,10 @@
     </row>
     <row r="570" spans="1:16">
       <c r="A570">
-        <v>848</v>
+        <v>569</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C570" t="s">
         <v>142</v>
@@ -19648,10 +19648,10 @@
     </row>
     <row r="571" spans="1:16">
       <c r="A571">
-        <v>849</v>
+        <v>570</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C571" t="s">
         <v>142</v>
@@ -19677,10 +19677,10 @@
     </row>
     <row r="572" spans="1:16">
       <c r="A572">
-        <v>850</v>
+        <v>571</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C572" t="s">
         <v>142</v>
@@ -19706,10 +19706,10 @@
     </row>
     <row r="573" spans="1:16">
       <c r="A573">
-        <v>851</v>
+        <v>572</v>
       </c>
       <c r="B573">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C573" t="s">
         <v>142</v>
@@ -19741,10 +19741,10 @@
     </row>
     <row r="574" spans="1:16">
       <c r="A574">
-        <v>852</v>
+        <v>573</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C574" t="s">
         <v>142</v>
@@ -19770,10 +19770,10 @@
     </row>
     <row r="575" spans="1:16">
       <c r="A575">
-        <v>853</v>
+        <v>574</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C575" t="s">
         <v>142</v>
@@ -19802,10 +19802,10 @@
     </row>
     <row r="576" spans="1:16">
       <c r="A576">
-        <v>855</v>
+        <v>575</v>
       </c>
       <c r="B576">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C576" t="s">
         <v>142</v>
@@ -19831,10 +19831,10 @@
     </row>
     <row r="577" spans="1:16">
       <c r="A577">
-        <v>857</v>
+        <v>576</v>
       </c>
       <c r="B577">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C577" t="s">
         <v>142</v>
@@ -19860,10 +19860,10 @@
     </row>
     <row r="578" spans="1:16">
       <c r="A578">
-        <v>858</v>
+        <v>577</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C578" t="s">
         <v>142</v>
@@ -19889,10 +19889,10 @@
     </row>
     <row r="579" spans="1:16">
       <c r="A579">
-        <v>859</v>
+        <v>578</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C579" t="s">
         <v>142</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="580" spans="1:16">
       <c r="A580">
-        <v>860</v>
+        <v>579</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C580" t="s">
         <v>142</v>
@@ -19959,10 +19959,10 @@
     </row>
     <row r="581" spans="1:16">
       <c r="A581">
-        <v>861</v>
+        <v>580</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C581" t="s">
         <v>142</v>
@@ -19991,10 +19991,10 @@
     </row>
     <row r="582" spans="1:16">
       <c r="A582">
-        <v>862</v>
+        <v>581</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C582" t="s">
         <v>142</v>
@@ -20020,10 +20020,10 @@
     </row>
     <row r="583" spans="1:16">
       <c r="A583">
-        <v>865</v>
+        <v>582</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C583" t="s">
         <v>143</v>
@@ -20061,10 +20061,10 @@
     </row>
     <row r="584" spans="1:16">
       <c r="A584">
-        <v>866</v>
+        <v>583</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C584" t="s">
         <v>143</v>
@@ -20102,10 +20102,10 @@
     </row>
     <row r="585" spans="1:16">
       <c r="A585">
-        <v>867</v>
+        <v>584</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C585" t="s">
         <v>144</v>
@@ -20137,10 +20137,10 @@
     </row>
     <row r="586" spans="1:16">
       <c r="A586">
-        <v>868</v>
+        <v>585</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C586" t="s">
         <v>144</v>
@@ -20178,10 +20178,10 @@
     </row>
     <row r="587" spans="1:16">
       <c r="A587">
-        <v>869</v>
+        <v>586</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C587" t="s">
         <v>145</v>
@@ -20219,10 +20219,10 @@
     </row>
     <row r="588" spans="1:16">
       <c r="A588">
-        <v>871</v>
+        <v>587</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C588" t="s">
         <v>146</v>
@@ -20248,10 +20248,10 @@
     </row>
     <row r="589" spans="1:16">
       <c r="A589">
-        <v>872</v>
+        <v>588</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C589" t="s">
         <v>147</v>
@@ -20286,10 +20286,10 @@
     </row>
     <row r="590" spans="1:16">
       <c r="A590">
-        <v>874</v>
+        <v>589</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C590" t="s">
         <v>148</v>
@@ -20315,10 +20315,10 @@
     </row>
     <row r="591" spans="1:16">
       <c r="A591">
-        <v>875</v>
+        <v>590</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C591" t="s">
         <v>148</v>
@@ -20347,10 +20347,10 @@
     </row>
     <row r="592" spans="1:16">
       <c r="A592">
-        <v>876</v>
+        <v>591</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C592" t="s">
         <v>148</v>
@@ -20376,10 +20376,10 @@
     </row>
     <row r="593" spans="1:16">
       <c r="A593">
-        <v>880</v>
+        <v>592</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C593" t="s">
         <v>148</v>
@@ -20408,10 +20408,10 @@
     </row>
     <row r="594" spans="1:16">
       <c r="A594">
-        <v>881</v>
+        <v>593</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C594" t="s">
         <v>148</v>
@@ -20437,10 +20437,10 @@
     </row>
     <row r="595" spans="1:16">
       <c r="A595">
-        <v>882</v>
+        <v>594</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C595" t="s">
         <v>148</v>
@@ -20466,10 +20466,10 @@
     </row>
     <row r="596" spans="1:16">
       <c r="A596">
-        <v>883</v>
+        <v>595</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C596" t="s">
         <v>148</v>
@@ -20495,10 +20495,10 @@
     </row>
     <row r="597" spans="1:16">
       <c r="A597">
-        <v>884</v>
+        <v>596</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C597" t="s">
         <v>148</v>
@@ -20527,10 +20527,10 @@
     </row>
     <row r="598" spans="1:16">
       <c r="A598">
-        <v>885</v>
+        <v>597</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C598" t="s">
         <v>148</v>
@@ -20556,10 +20556,10 @@
     </row>
     <row r="599" spans="1:16">
       <c r="A599">
-        <v>889</v>
+        <v>598</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C599" t="s">
         <v>149</v>
@@ -20591,10 +20591,10 @@
     </row>
     <row r="600" spans="1:16">
       <c r="A600">
-        <v>890</v>
+        <v>599</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C600" t="s">
         <v>150</v>
@@ -20626,10 +20626,10 @@
     </row>
     <row r="601" spans="1:16">
       <c r="A601">
-        <v>895</v>
+        <v>600</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C601" t="s">
         <v>151</v>
@@ -20655,10 +20655,10 @@
     </row>
     <row r="602" spans="1:16">
       <c r="A602">
-        <v>898</v>
+        <v>601</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C602" t="s">
         <v>152</v>
@@ -20684,10 +20684,10 @@
     </row>
     <row r="603" spans="1:16">
       <c r="A603">
-        <v>899</v>
+        <v>602</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C603" t="s">
         <v>152</v>
@@ -20713,10 +20713,10 @@
     </row>
     <row r="604" spans="1:16">
       <c r="A604">
-        <v>901</v>
+        <v>603</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C604" t="s">
         <v>153</v>
@@ -20742,10 +20742,10 @@
     </row>
     <row r="605" spans="1:16">
       <c r="A605">
-        <v>902</v>
+        <v>604</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C605" t="s">
         <v>153</v>
@@ -20771,10 +20771,10 @@
     </row>
     <row r="606" spans="1:16">
       <c r="A606">
-        <v>903</v>
+        <v>605</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C606" t="s">
         <v>153</v>
@@ -20809,10 +20809,10 @@
     </row>
     <row r="607" spans="1:16">
       <c r="A607">
-        <v>904</v>
+        <v>606</v>
       </c>
       <c r="B607">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C607" t="s">
         <v>153</v>
@@ -20847,10 +20847,10 @@
     </row>
     <row r="608" spans="1:16">
       <c r="A608">
-        <v>905</v>
+        <v>607</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C608" t="s">
         <v>153</v>
@@ -20885,10 +20885,10 @@
     </row>
     <row r="609" spans="1:16">
       <c r="A609">
-        <v>906</v>
+        <v>608</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C609" t="s">
         <v>153</v>
@@ -20923,10 +20923,10 @@
     </row>
     <row r="610" spans="1:16">
       <c r="A610">
-        <v>907</v>
+        <v>609</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C610" t="s">
         <v>153</v>
@@ -20961,10 +20961,10 @@
     </row>
     <row r="611" spans="1:16">
       <c r="A611">
-        <v>908</v>
+        <v>610</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C611" t="s">
         <v>153</v>
@@ -20999,10 +20999,10 @@
     </row>
     <row r="612" spans="1:16">
       <c r="A612">
-        <v>909</v>
+        <v>611</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C612" t="s">
         <v>154</v>
@@ -21043,10 +21043,10 @@
     </row>
     <row r="613" spans="1:16">
       <c r="A613">
-        <v>910</v>
+        <v>612</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C613" t="s">
         <v>154</v>
@@ -21087,10 +21087,10 @@
     </row>
     <row r="614" spans="1:16">
       <c r="A614">
-        <v>911</v>
+        <v>613</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C614" t="s">
         <v>154</v>
@@ -21131,10 +21131,10 @@
     </row>
     <row r="615" spans="1:16">
       <c r="A615">
-        <v>912</v>
+        <v>614</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C615" t="s">
         <v>154</v>
@@ -21175,10 +21175,10 @@
     </row>
     <row r="616" spans="1:16">
       <c r="A616">
-        <v>913</v>
+        <v>615</v>
       </c>
       <c r="B616">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C616" t="s">
         <v>155</v>
@@ -21204,10 +21204,10 @@
     </row>
     <row r="617" spans="1:16">
       <c r="A617">
-        <v>914</v>
+        <v>616</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="C617" t="s">
         <v>156</v>
@@ -21233,10 +21233,10 @@
     </row>
     <row r="618" spans="1:16">
       <c r="A618">
-        <v>915</v>
+        <v>617</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="C618" t="s">
         <v>157</v>
@@ -21268,10 +21268,10 @@
     </row>
     <row r="619" spans="1:16">
       <c r="A619">
-        <v>916</v>
+        <v>618</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="C619" t="s">
         <v>157</v>
@@ -21303,10 +21303,10 @@
     </row>
     <row r="620" spans="1:16">
       <c r="A620">
-        <v>918</v>
+        <v>619</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="C620" t="s">
         <v>158</v>
@@ -21338,10 +21338,10 @@
     </row>
     <row r="621" spans="1:16">
       <c r="A621">
-        <v>920</v>
+        <v>620</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C621" t="s">
         <v>159</v>
@@ -21367,10 +21367,10 @@
     </row>
     <row r="622" spans="1:16">
       <c r="A622">
-        <v>921</v>
+        <v>621</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C622" t="s">
         <v>159</v>
@@ -21396,10 +21396,10 @@
     </row>
     <row r="623" spans="1:16">
       <c r="A623">
-        <v>922</v>
+        <v>622</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C623" t="s">
         <v>159</v>
@@ -21425,10 +21425,10 @@
     </row>
     <row r="624" spans="1:16">
       <c r="A624">
-        <v>923</v>
+        <v>623</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C624" t="s">
         <v>159</v>
@@ -21454,10 +21454,10 @@
     </row>
     <row r="625" spans="1:16">
       <c r="A625">
-        <v>924</v>
+        <v>624</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C625" t="s">
         <v>159</v>
@@ -21483,10 +21483,10 @@
     </row>
     <row r="626" spans="1:16">
       <c r="A626">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="C626" t="s">
         <v>160</v>
@@ -21527,10 +21527,10 @@
     </row>
     <row r="627" spans="1:16">
       <c r="A627">
-        <v>926</v>
+        <v>626</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C627" t="s">
         <v>161</v>
@@ -21562,10 +21562,10 @@
     </row>
     <row r="628" spans="1:16">
       <c r="A628">
-        <v>927</v>
+        <v>627</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C628" t="s">
         <v>161</v>
@@ -21597,10 +21597,10 @@
     </row>
     <row r="629" spans="1:16">
       <c r="A629">
-        <v>928</v>
+        <v>628</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C629" t="s">
         <v>161</v>
@@ -21632,10 +21632,10 @@
     </row>
     <row r="630" spans="1:16">
       <c r="A630">
-        <v>929</v>
+        <v>629</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C630" t="s">
         <v>161</v>
@@ -21667,10 +21667,10 @@
     </row>
     <row r="631" spans="1:16">
       <c r="A631">
-        <v>930</v>
+        <v>630</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C631" t="s">
         <v>161</v>
@@ -21702,10 +21702,10 @@
     </row>
     <row r="632" spans="1:16">
       <c r="A632">
-        <v>931</v>
+        <v>631</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C632" t="s">
         <v>161</v>
@@ -21737,10 +21737,10 @@
     </row>
     <row r="633" spans="1:16">
       <c r="A633">
-        <v>932</v>
+        <v>632</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C633" t="s">
         <v>161</v>
@@ -21772,10 +21772,10 @@
     </row>
     <row r="634" spans="1:16">
       <c r="A634">
-        <v>933</v>
+        <v>633</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C634" t="s">
         <v>161</v>
@@ -21807,10 +21807,10 @@
     </row>
     <row r="635" spans="1:16">
       <c r="A635">
-        <v>934</v>
+        <v>634</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C635" t="s">
         <v>161</v>
@@ -21842,10 +21842,10 @@
     </row>
     <row r="636" spans="1:16">
       <c r="A636">
-        <v>935</v>
+        <v>635</v>
       </c>
       <c r="B636">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C636" t="s">
         <v>161</v>
@@ -21877,10 +21877,10 @@
     </row>
     <row r="637" spans="1:16">
       <c r="A637">
-        <v>936</v>
+        <v>636</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C637" t="s">
         <v>161</v>
@@ -21912,10 +21912,10 @@
     </row>
     <row r="638" spans="1:16">
       <c r="A638">
-        <v>937</v>
+        <v>637</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C638" t="s">
         <v>161</v>
@@ -21947,10 +21947,10 @@
     </row>
     <row r="639" spans="1:16">
       <c r="A639">
-        <v>938</v>
+        <v>638</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C639" t="s">
         <v>161</v>
@@ -21982,10 +21982,10 @@
     </row>
     <row r="640" spans="1:16">
       <c r="A640">
-        <v>939</v>
+        <v>639</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C640" t="s">
         <v>161</v>
@@ -22017,10 +22017,10 @@
     </row>
     <row r="641" spans="1:16">
       <c r="A641">
-        <v>940</v>
+        <v>640</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C641" t="s">
         <v>161</v>
@@ -22052,10 +22052,10 @@
     </row>
     <row r="642" spans="1:16">
       <c r="A642">
-        <v>941</v>
+        <v>641</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C642" t="s">
         <v>161</v>
@@ -22087,10 +22087,10 @@
     </row>
     <row r="643" spans="1:16">
       <c r="A643">
-        <v>942</v>
+        <v>642</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C643" t="s">
         <v>161</v>
@@ -22122,10 +22122,10 @@
     </row>
     <row r="644" spans="1:16">
       <c r="A644">
-        <v>943</v>
+        <v>643</v>
       </c>
       <c r="B644">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C644" t="s">
         <v>161</v>
@@ -22157,10 +22157,10 @@
     </row>
     <row r="645" spans="1:16">
       <c r="A645">
-        <v>944</v>
+        <v>644</v>
       </c>
       <c r="B645">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C645" t="s">
         <v>161</v>
@@ -22192,10 +22192,10 @@
     </row>
     <row r="646" spans="1:16">
       <c r="A646">
-        <v>945</v>
+        <v>645</v>
       </c>
       <c r="B646">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C646" t="s">
         <v>161</v>
@@ -22227,10 +22227,10 @@
     </row>
     <row r="647" spans="1:16">
       <c r="A647">
-        <v>946</v>
+        <v>646</v>
       </c>
       <c r="B647">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C647" t="s">
         <v>161</v>
@@ -22262,10 +22262,10 @@
     </row>
     <row r="648" spans="1:16">
       <c r="A648">
-        <v>947</v>
+        <v>647</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C648" t="s">
         <v>161</v>
@@ -22297,10 +22297,10 @@
     </row>
     <row r="649" spans="1:16">
       <c r="A649">
-        <v>948</v>
+        <v>648</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C649" t="s">
         <v>161</v>
@@ -22332,10 +22332,10 @@
     </row>
     <row r="650" spans="1:16">
       <c r="A650">
-        <v>949</v>
+        <v>649</v>
       </c>
       <c r="B650">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="C650" t="s">
         <v>162</v>
@@ -22361,10 +22361,10 @@
     </row>
     <row r="651" spans="1:16">
       <c r="A651">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="C651" t="s">
         <v>163</v>
@@ -22390,10 +22390,10 @@
     </row>
     <row r="652" spans="1:16">
       <c r="A652">
-        <v>953</v>
+        <v>651</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="C652" t="s">
         <v>164</v>
@@ -22422,10 +22422,10 @@
     </row>
     <row r="653" spans="1:16">
       <c r="A653">
-        <v>954</v>
+        <v>652</v>
       </c>
       <c r="B653">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C653" t="s">
         <v>165</v>
@@ -22454,10 +22454,10 @@
     </row>
     <row r="654" spans="1:16">
       <c r="A654">
-        <v>955</v>
+        <v>653</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C654" t="s">
         <v>165</v>
@@ -22486,10 +22486,10 @@
     </row>
     <row r="655" spans="1:16">
       <c r="A655">
-        <v>956</v>
+        <v>654</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C655" t="s">
         <v>165</v>
@@ -22518,10 +22518,10 @@
     </row>
     <row r="656" spans="1:16">
       <c r="A656">
-        <v>957</v>
+        <v>655</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C656" t="s">
         <v>165</v>
@@ -22550,10 +22550,10 @@
     </row>
     <row r="657" spans="1:16">
       <c r="A657">
-        <v>958</v>
+        <v>656</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C657" t="s">
         <v>165</v>
@@ -22582,10 +22582,10 @@
     </row>
     <row r="658" spans="1:16">
       <c r="A658">
-        <v>959</v>
+        <v>657</v>
       </c>
       <c r="B658">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C658" t="s">
         <v>165</v>
@@ -22614,10 +22614,10 @@
     </row>
     <row r="659" spans="1:16">
       <c r="A659">
-        <v>960</v>
+        <v>658</v>
       </c>
       <c r="B659">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C659" t="s">
         <v>165</v>
@@ -22646,10 +22646,10 @@
     </row>
     <row r="660" spans="1:16">
       <c r="A660">
-        <v>961</v>
+        <v>659</v>
       </c>
       <c r="B660">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C660" t="s">
         <v>165</v>
@@ -22678,10 +22678,10 @@
     </row>
     <row r="661" spans="1:16">
       <c r="A661">
-        <v>962</v>
+        <v>660</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C661" t="s">
         <v>165</v>
@@ -22710,10 +22710,10 @@
     </row>
     <row r="662" spans="1:16">
       <c r="A662">
-        <v>963</v>
+        <v>661</v>
       </c>
       <c r="B662">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C662" t="s">
         <v>165</v>
@@ -22742,10 +22742,10 @@
     </row>
     <row r="663" spans="1:16">
       <c r="A663">
-        <v>964</v>
+        <v>662</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C663" t="s">
         <v>165</v>
@@ -22774,10 +22774,10 @@
     </row>
     <row r="664" spans="1:16">
       <c r="A664">
-        <v>965</v>
+        <v>663</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C664" t="s">
         <v>165</v>
@@ -22806,10 +22806,10 @@
     </row>
     <row r="665" spans="1:16">
       <c r="A665">
-        <v>966</v>
+        <v>664</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C665" t="s">
         <v>165</v>
@@ -22838,10 +22838,10 @@
     </row>
     <row r="666" spans="1:16">
       <c r="A666">
-        <v>967</v>
+        <v>665</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C666" t="s">
         <v>165</v>
@@ -22870,10 +22870,10 @@
     </row>
     <row r="667" spans="1:16">
       <c r="A667">
-        <v>968</v>
+        <v>666</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="C667" t="s">
         <v>166</v>
@@ -22905,10 +22905,10 @@
     </row>
     <row r="668" spans="1:16">
       <c r="A668">
-        <v>969</v>
+        <v>667</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C668" t="s">
         <v>167</v>
@@ -22940,10 +22940,10 @@
     </row>
     <row r="669" spans="1:16">
       <c r="A669">
-        <v>970</v>
+        <v>668</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C669" t="s">
         <v>168</v>
@@ -22969,10 +22969,10 @@
     </row>
     <row r="670" spans="1:16">
       <c r="A670">
-        <v>971</v>
+        <v>669</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C670" t="s">
         <v>168</v>
@@ -23013,10 +23013,10 @@
     </row>
     <row r="671" spans="1:16">
       <c r="A671">
-        <v>972</v>
+        <v>670</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="C671" t="s">
         <v>169</v>
@@ -23045,10 +23045,10 @@
     </row>
     <row r="672" spans="1:16">
       <c r="A672">
-        <v>973</v>
+        <v>671</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="C672" t="s">
         <v>170</v>
@@ -23074,10 +23074,10 @@
     </row>
     <row r="673" spans="1:16">
       <c r="A673">
-        <v>974</v>
+        <v>672</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C673" t="s">
         <v>171</v>
@@ -23103,10 +23103,10 @@
     </row>
     <row r="674" spans="1:16">
       <c r="A674">
-        <v>975</v>
+        <v>673</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C674" t="s">
         <v>172</v>
@@ -23132,10 +23132,10 @@
     </row>
     <row r="675" spans="1:16">
       <c r="A675">
-        <v>979</v>
+        <v>674</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C675" t="s">
         <v>173</v>
@@ -23170,10 +23170,10 @@
     </row>
     <row r="676" spans="1:16">
       <c r="A676">
-        <v>980</v>
+        <v>675</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C676" t="s">
         <v>173</v>
@@ -23208,10 +23208,10 @@
     </row>
     <row r="677" spans="1:16">
       <c r="A677">
-        <v>981</v>
+        <v>676</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C677" t="s">
         <v>173</v>
@@ -23246,10 +23246,10 @@
     </row>
     <row r="678" spans="1:16">
       <c r="A678">
-        <v>982</v>
+        <v>677</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C678" t="s">
         <v>173</v>
@@ -23284,10 +23284,10 @@
     </row>
     <row r="679" spans="1:16">
       <c r="A679">
-        <v>983</v>
+        <v>678</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="C679" t="s">
         <v>174</v>
@@ -23316,10 +23316,10 @@
     </row>
     <row r="680" spans="1:16">
       <c r="A680">
-        <v>984</v>
+        <v>679</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="C680" t="s">
         <v>174</v>
@@ -23348,10 +23348,10 @@
     </row>
     <row r="681" spans="1:16">
       <c r="A681">
-        <v>985</v>
+        <v>680</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C681" t="s">
         <v>175</v>
@@ -23383,10 +23383,10 @@
     </row>
     <row r="682" spans="1:16">
       <c r="A682">
-        <v>986</v>
+        <v>681</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C682" t="s">
         <v>175</v>
@@ -23427,10 +23427,10 @@
     </row>
     <row r="683" spans="1:16">
       <c r="A683">
-        <v>987</v>
+        <v>682</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C683" t="s">
         <v>175</v>
@@ -23471,10 +23471,10 @@
     </row>
     <row r="684" spans="1:16">
       <c r="A684">
-        <v>988</v>
+        <v>683</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C684" t="s">
         <v>175</v>
@@ -23515,10 +23515,10 @@
     </row>
     <row r="685" spans="1:16">
       <c r="A685">
-        <v>989</v>
+        <v>684</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C685" t="s">
         <v>175</v>
@@ -23559,10 +23559,10 @@
     </row>
     <row r="686" spans="1:16">
       <c r="A686">
-        <v>990</v>
+        <v>685</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C686" t="s">
         <v>176</v>
@@ -23588,10 +23588,10 @@
     </row>
     <row r="687" spans="1:16">
       <c r="A687">
-        <v>991</v>
+        <v>686</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C687" t="s">
         <v>176</v>
@@ -23626,10 +23626,10 @@
     </row>
     <row r="688" spans="1:16">
       <c r="A688">
-        <v>992</v>
+        <v>687</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C688" t="s">
         <v>176</v>
@@ -23664,10 +23664,10 @@
     </row>
     <row r="689" spans="1:16">
       <c r="A689">
-        <v>993</v>
+        <v>688</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C689" t="s">
         <v>177</v>
@@ -23708,10 +23708,10 @@
     </row>
     <row r="690" spans="1:16">
       <c r="A690">
-        <v>994</v>
+        <v>689</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C690" t="s">
         <v>177</v>
@@ -23752,10 +23752,10 @@
     </row>
     <row r="691" spans="1:16">
       <c r="A691">
-        <v>995</v>
+        <v>690</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C691" t="s">
         <v>177</v>
@@ -23796,10 +23796,10 @@
     </row>
     <row r="692" spans="1:16">
       <c r="A692">
-        <v>996</v>
+        <v>691</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="C692" t="s">
         <v>178</v>
@@ -23825,10 +23825,10 @@
     </row>
     <row r="693" spans="1:16">
       <c r="A693">
-        <v>997</v>
+        <v>692</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="C693" t="s">
         <v>178</v>
@@ -23854,10 +23854,10 @@
     </row>
     <row r="694" spans="1:16">
       <c r="A694">
-        <v>998</v>
+        <v>693</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C694" t="s">
         <v>179</v>
@@ -23889,10 +23889,10 @@
     </row>
     <row r="695" spans="1:16">
       <c r="A695">
-        <v>999</v>
+        <v>694</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C695" t="s">
         <v>179</v>
@@ -23924,10 +23924,10 @@
     </row>
     <row r="696" spans="1:16">
       <c r="A696">
-        <v>1000</v>
+        <v>695</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C696" t="s">
         <v>179</v>
@@ -23959,10 +23959,10 @@
     </row>
     <row r="697" spans="1:16">
       <c r="A697">
-        <v>1001</v>
+        <v>696</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C697" t="s">
         <v>179</v>
@@ -23994,10 +23994,10 @@
     </row>
     <row r="698" spans="1:16">
       <c r="A698">
-        <v>1002</v>
+        <v>697</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C698" t="s">
         <v>179</v>
@@ -24029,10 +24029,10 @@
     </row>
     <row r="699" spans="1:16">
       <c r="A699">
-        <v>1003</v>
+        <v>698</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C699" t="s">
         <v>179</v>
@@ -24064,10 +24064,10 @@
     </row>
     <row r="700" spans="1:16">
       <c r="A700">
-        <v>1004</v>
+        <v>699</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C700" t="s">
         <v>179</v>
@@ -24099,10 +24099,10 @@
     </row>
     <row r="701" spans="1:16">
       <c r="A701">
-        <v>1005</v>
+        <v>700</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C701" t="s">
         <v>179</v>
@@ -24134,10 +24134,10 @@
     </row>
     <row r="702" spans="1:16">
       <c r="A702">
-        <v>1006</v>
+        <v>701</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C702" t="s">
         <v>179</v>
@@ -24169,10 +24169,10 @@
     </row>
     <row r="703" spans="1:16">
       <c r="A703">
-        <v>1007</v>
+        <v>702</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C703" t="s">
         <v>179</v>
@@ -24204,10 +24204,10 @@
     </row>
     <row r="704" spans="1:16">
       <c r="A704">
-        <v>1008</v>
+        <v>703</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C704" t="s">
         <v>179</v>
@@ -24239,10 +24239,10 @@
     </row>
     <row r="705" spans="1:16">
       <c r="A705">
-        <v>1009</v>
+        <v>704</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C705" t="s">
         <v>179</v>
@@ -24274,10 +24274,10 @@
     </row>
     <row r="706" spans="1:16">
       <c r="A706">
-        <v>1010</v>
+        <v>705</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C706" t="s">
         <v>179</v>
@@ -24309,10 +24309,10 @@
     </row>
     <row r="707" spans="1:16">
       <c r="A707">
-        <v>1011</v>
+        <v>706</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C707" t="s">
         <v>179</v>
@@ -24344,10 +24344,10 @@
     </row>
     <row r="708" spans="1:16">
       <c r="A708">
-        <v>1012</v>
+        <v>707</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C708" t="s">
         <v>179</v>
@@ -24379,10 +24379,10 @@
     </row>
     <row r="709" spans="1:16">
       <c r="A709">
-        <v>1013</v>
+        <v>708</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="C709" t="s">
         <v>180</v>
@@ -24408,10 +24408,10 @@
     </row>
     <row r="710" spans="1:16">
       <c r="A710">
-        <v>1014</v>
+        <v>709</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C710" t="s">
         <v>181</v>
@@ -24440,10 +24440,10 @@
     </row>
     <row r="711" spans="1:16">
       <c r="A711">
-        <v>1015</v>
+        <v>710</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C711" t="s">
         <v>181</v>
@@ -24469,10 +24469,10 @@
     </row>
     <row r="712" spans="1:16">
       <c r="A712">
-        <v>1016</v>
+        <v>711</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C712" t="s">
         <v>181</v>
@@ -24498,10 +24498,10 @@
     </row>
     <row r="713" spans="1:16">
       <c r="A713">
-        <v>1017</v>
+        <v>712</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C713" t="s">
         <v>181</v>
@@ -24527,10 +24527,10 @@
     </row>
     <row r="714" spans="1:16">
       <c r="A714">
-        <v>1018</v>
+        <v>713</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C714" t="s">
         <v>181</v>
@@ -24556,10 +24556,10 @@
     </row>
     <row r="715" spans="1:16">
       <c r="A715">
-        <v>1019</v>
+        <v>714</v>
       </c>
       <c r="B715">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C715" t="s">
         <v>182</v>
@@ -24591,10 +24591,10 @@
     </row>
     <row r="716" spans="1:16">
       <c r="A716">
-        <v>1044</v>
+        <v>715</v>
       </c>
       <c r="B716">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="C716" t="s">
         <v>183</v>
@@ -24623,10 +24623,10 @@
     </row>
     <row r="717" spans="1:16">
       <c r="A717">
-        <v>1045</v>
+        <v>716</v>
       </c>
       <c r="B717">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="C717" t="s">
         <v>183</v>
@@ -24658,10 +24658,10 @@
     </row>
     <row r="718" spans="1:16">
       <c r="A718">
-        <v>1046</v>
+        <v>717</v>
       </c>
       <c r="B718">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="C718" t="s">
         <v>184</v>
@@ -24687,10 +24687,10 @@
     </row>
     <row r="719" spans="1:16">
       <c r="A719">
-        <v>1047</v>
+        <v>718</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="C719" t="s">
         <v>184</v>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="720" spans="1:16">
       <c r="A720">
-        <v>1050</v>
+        <v>719</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C720" t="s">
         <v>185</v>
@@ -24754,10 +24754,10 @@
     </row>
     <row r="721" spans="1:16">
       <c r="A721">
-        <v>1051</v>
+        <v>720</v>
       </c>
       <c r="B721">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="C721" t="s">
         <v>186</v>
@@ -24786,10 +24786,10 @@
     </row>
     <row r="722" spans="1:16">
       <c r="A722">
-        <v>1052</v>
+        <v>721</v>
       </c>
       <c r="B722">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C722" t="s">
         <v>187</v>
@@ -24821,10 +24821,10 @@
     </row>
     <row r="723" spans="1:16">
       <c r="A723">
-        <v>1053</v>
+        <v>722</v>
       </c>
       <c r="B723">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="C723" t="s">
         <v>188</v>
@@ -24859,10 +24859,10 @@
     </row>
     <row r="724" spans="1:16">
       <c r="A724">
-        <v>1063</v>
+        <v>723</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C724" t="s">
         <v>189</v>
@@ -24888,10 +24888,10 @@
     </row>
     <row r="725" spans="1:16">
       <c r="A725">
-        <v>1064</v>
+        <v>724</v>
       </c>
       <c r="B725">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C725" t="s">
         <v>189</v>
@@ -24923,10 +24923,10 @@
     </row>
     <row r="726" spans="1:16">
       <c r="A726">
-        <v>1065</v>
+        <v>725</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C726" t="s">
         <v>190</v>
@@ -24955,10 +24955,10 @@
     </row>
     <row r="727" spans="1:16">
       <c r="A727">
-        <v>1066</v>
+        <v>726</v>
       </c>
       <c r="B727">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C727" t="s">
         <v>190</v>
@@ -24990,10 +24990,10 @@
     </row>
     <row r="728" spans="1:16">
       <c r="A728">
-        <v>1067</v>
+        <v>727</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C728" t="s">
         <v>190</v>
@@ -25022,10 +25022,10 @@
     </row>
     <row r="729" spans="1:16">
       <c r="A729">
-        <v>1068</v>
+        <v>728</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C729" t="s">
         <v>191</v>
@@ -25057,10 +25057,10 @@
     </row>
     <row r="730" spans="1:16">
       <c r="A730">
-        <v>1069</v>
+        <v>729</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C730" t="s">
         <v>191</v>
@@ -25092,10 +25092,10 @@
     </row>
     <row r="731" spans="1:16">
       <c r="A731">
-        <v>1070</v>
+        <v>730</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="C731" t="s">
         <v>192</v>
@@ -25124,10 +25124,10 @@
     </row>
     <row r="732" spans="1:16">
       <c r="A732">
-        <v>1071</v>
+        <v>731</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C732" t="s">
         <v>193</v>
@@ -25153,10 +25153,10 @@
     </row>
     <row r="733" spans="1:16">
       <c r="A733">
-        <v>1072</v>
+        <v>732</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C733" t="s">
         <v>193</v>
@@ -25182,10 +25182,10 @@
     </row>
     <row r="734" spans="1:16">
       <c r="A734">
-        <v>1073</v>
+        <v>733</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C734" t="s">
         <v>193</v>
@@ -25211,10 +25211,10 @@
     </row>
     <row r="735" spans="1:16">
       <c r="A735">
-        <v>1074</v>
+        <v>734</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C735" t="s">
         <v>193</v>
@@ -25240,10 +25240,10 @@
     </row>
     <row r="736" spans="1:16">
       <c r="A736">
-        <v>1075</v>
+        <v>735</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C736" t="s">
         <v>193</v>
@@ -25269,10 +25269,10 @@
     </row>
     <row r="737" spans="1:16">
       <c r="A737">
-        <v>1078</v>
+        <v>736</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C737" t="s">
         <v>194</v>
@@ -25301,10 +25301,10 @@
     </row>
     <row r="738" spans="1:16">
       <c r="A738">
-        <v>1079</v>
+        <v>737</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C738" t="s">
         <v>194</v>
@@ -25333,10 +25333,10 @@
     </row>
     <row r="739" spans="1:16">
       <c r="A739">
-        <v>1080</v>
+        <v>738</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C739" t="s">
         <v>194</v>
@@ -25368,10 +25368,10 @@
     </row>
     <row r="740" spans="1:16">
       <c r="A740">
-        <v>1081</v>
+        <v>739</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C740" t="s">
         <v>194</v>
@@ -25403,10 +25403,10 @@
     </row>
     <row r="741" spans="1:16">
       <c r="A741">
-        <v>1082</v>
+        <v>740</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C741" t="s">
         <v>194</v>
@@ -25438,10 +25438,10 @@
     </row>
     <row r="742" spans="1:16">
       <c r="A742">
-        <v>1083</v>
+        <v>741</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C742" t="s">
         <v>194</v>
@@ -25470,10 +25470,10 @@
     </row>
     <row r="743" spans="1:16">
       <c r="A743">
-        <v>1084</v>
+        <v>742</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C743" t="s">
         <v>194</v>
@@ -25505,10 +25505,10 @@
     </row>
     <row r="744" spans="1:16">
       <c r="A744">
-        <v>1085</v>
+        <v>743</v>
       </c>
       <c r="B744">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C744" t="s">
         <v>194</v>
@@ -25540,10 +25540,10 @@
     </row>
     <row r="745" spans="1:16">
       <c r="A745">
-        <v>1086</v>
+        <v>744</v>
       </c>
       <c r="B745">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C745" t="s">
         <v>194</v>
@@ -25575,10 +25575,10 @@
     </row>
     <row r="746" spans="1:16">
       <c r="A746">
-        <v>1087</v>
+        <v>745</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C746" t="s">
         <v>194</v>
@@ -25610,10 +25610,10 @@
     </row>
     <row r="747" spans="1:16">
       <c r="A747">
-        <v>1088</v>
+        <v>746</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C747" t="s">
         <v>194</v>
@@ -25645,10 +25645,10 @@
     </row>
     <row r="748" spans="1:16">
       <c r="A748">
-        <v>1089</v>
+        <v>747</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C748" t="s">
         <v>194</v>
@@ -25680,10 +25680,10 @@
     </row>
     <row r="749" spans="1:16">
       <c r="A749">
-        <v>1090</v>
+        <v>748</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C749" t="s">
         <v>194</v>
@@ -25715,10 +25715,10 @@
     </row>
     <row r="750" spans="1:16">
       <c r="A750">
-        <v>1092</v>
+        <v>749</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C750" t="s">
         <v>195</v>
@@ -25750,10 +25750,10 @@
     </row>
     <row r="751" spans="1:16">
       <c r="A751">
-        <v>1093</v>
+        <v>750</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C751" t="s">
         <v>196</v>
@@ -25785,10 +25785,10 @@
     </row>
     <row r="752" spans="1:16">
       <c r="A752">
-        <v>1094</v>
+        <v>751</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="C752" t="s">
         <v>197</v>
@@ -25820,10 +25820,10 @@
     </row>
     <row r="753" spans="1:16">
       <c r="A753">
-        <v>1097</v>
+        <v>752</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C753" t="s">
         <v>198</v>
@@ -25849,10 +25849,10 @@
     </row>
     <row r="754" spans="1:16">
       <c r="A754">
-        <v>1102</v>
+        <v>753</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C754" t="s">
         <v>199</v>
@@ -25890,10 +25890,10 @@
     </row>
     <row r="755" spans="1:16">
       <c r="A755">
-        <v>1103</v>
+        <v>754</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C755" t="s">
         <v>199</v>
@@ -25931,10 +25931,10 @@
     </row>
     <row r="756" spans="1:16">
       <c r="A756">
-        <v>1104</v>
+        <v>755</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C756" t="s">
         <v>199</v>
@@ -25972,10 +25972,10 @@
     </row>
     <row r="757" spans="1:16">
       <c r="A757">
-        <v>1105</v>
+        <v>756</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C757" t="s">
         <v>199</v>
@@ -26013,10 +26013,10 @@
     </row>
     <row r="758" spans="1:16">
       <c r="A758">
-        <v>1106</v>
+        <v>757</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C758" t="s">
         <v>199</v>
@@ -26054,10 +26054,10 @@
     </row>
     <row r="759" spans="1:16">
       <c r="A759">
-        <v>1107</v>
+        <v>758</v>
       </c>
       <c r="B759">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C759" t="s">
         <v>199</v>
@@ -26095,10 +26095,10 @@
     </row>
     <row r="760" spans="1:16">
       <c r="A760">
-        <v>1108</v>
+        <v>759</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C760" t="s">
         <v>199</v>
@@ -26136,10 +26136,10 @@
     </row>
     <row r="761" spans="1:16">
       <c r="A761">
-        <v>1110</v>
+        <v>760</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C761" t="s">
         <v>199</v>
@@ -26177,10 +26177,10 @@
     </row>
     <row r="762" spans="1:16">
       <c r="A762">
-        <v>1111</v>
+        <v>761</v>
       </c>
       <c r="B762">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C762" t="s">
         <v>199</v>
@@ -26218,10 +26218,10 @@
     </row>
     <row r="763" spans="1:16">
       <c r="A763">
-        <v>1112</v>
+        <v>762</v>
       </c>
       <c r="B763">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C763" t="s">
         <v>199</v>
@@ -26259,10 +26259,10 @@
     </row>
     <row r="764" spans="1:16">
       <c r="A764">
-        <v>1113</v>
+        <v>763</v>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C764" t="s">
         <v>199</v>
@@ -26294,10 +26294,10 @@
     </row>
     <row r="765" spans="1:16">
       <c r="A765">
-        <v>1114</v>
+        <v>764</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C765" t="s">
         <v>199</v>
@@ -26335,10 +26335,10 @@
     </row>
     <row r="766" spans="1:16">
       <c r="A766">
-        <v>1115</v>
+        <v>765</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C766" t="s">
         <v>199</v>
@@ -26370,10 +26370,10 @@
     </row>
     <row r="767" spans="1:16">
       <c r="A767">
-        <v>1116</v>
+        <v>766</v>
       </c>
       <c r="B767">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="C767" t="s">
         <v>200</v>
@@ -26399,10 +26399,10 @@
     </row>
     <row r="768" spans="1:16">
       <c r="A768">
-        <v>1117</v>
+        <v>767</v>
       </c>
       <c r="B768">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="C768" t="s">
         <v>200</v>
@@ -26428,10 +26428,10 @@
     </row>
     <row r="769" spans="1:16">
       <c r="A769">
-        <v>1119</v>
+        <v>768</v>
       </c>
       <c r="B769">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="C769" t="s">
         <v>201</v>
